--- a/Mega_detector_raccoon_transfer_learning_ll/log_files/performance_result.xlsx
+++ b/Mega_detector_raccoon_transfer_learning_ll/log_files/performance_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zoon_parent\raccoon_identification\Mega_detector_raccoon_transfer_learning_ll\log_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E487FCD-5B63-4FA2-A282-77921DBC37EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B023CCED-4FE1-4DF5-97E3-91A6C6FB8D01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496"/>
   </bookViews>
@@ -917,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S94"/>
+  <dimension ref="A1:S190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:XFD87"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L159" sqref="L159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6469,6 +6469,5670 @@
       </c>
       <c r="S94">
         <v>0.53170850000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>202000</v>
+      </c>
+      <c r="B95">
+        <v>0.17752728000000001</v>
+      </c>
+      <c r="C95">
+        <v>0.27715309999999999</v>
+      </c>
+      <c r="D95">
+        <v>0.14009798000000001</v>
+      </c>
+      <c r="E95">
+        <v>9.5836080000000004E-2</v>
+      </c>
+      <c r="F95">
+        <v>0.34296971999999998</v>
+      </c>
+      <c r="G95">
+        <v>0.1663511</v>
+      </c>
+      <c r="H95">
+        <v>0.44407848</v>
+      </c>
+      <c r="I95">
+        <v>0.52396960000000004</v>
+      </c>
+      <c r="J95">
+        <v>0.5374949</v>
+      </c>
+      <c r="K95">
+        <v>0.60214809999999996</v>
+      </c>
+      <c r="L95">
+        <v>0.30814922</v>
+      </c>
+      <c r="M95">
+        <v>9.9264699999999997E-2</v>
+      </c>
+      <c r="N95">
+        <v>0.10429861</v>
+      </c>
+      <c r="O95">
+        <v>3.7039234999999997E-2</v>
+      </c>
+      <c r="P95">
+        <v>2.3257193999999998E-2</v>
+      </c>
+      <c r="Q95">
+        <v>0.35852903000000003</v>
+      </c>
+      <c r="R95">
+        <v>0.52312404000000001</v>
+      </c>
+      <c r="S95">
+        <v>0.52312404000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>204000</v>
+      </c>
+      <c r="B96">
+        <v>0.2112713</v>
+      </c>
+      <c r="C96">
+        <v>0.30260759999999998</v>
+      </c>
+      <c r="D96">
+        <v>0.15736945999999999</v>
+      </c>
+      <c r="E96">
+        <v>7.4998640000000005E-2</v>
+      </c>
+      <c r="F96">
+        <v>0.38665903000000001</v>
+      </c>
+      <c r="G96">
+        <v>0.20352951999999999</v>
+      </c>
+      <c r="H96">
+        <v>0.4257978</v>
+      </c>
+      <c r="I96">
+        <v>0.50897806999999995</v>
+      </c>
+      <c r="J96">
+        <v>0.51454770000000005</v>
+      </c>
+      <c r="K96">
+        <v>0.62246953999999999</v>
+      </c>
+      <c r="L96">
+        <v>0.33627772</v>
+      </c>
+      <c r="M96">
+        <v>0.12266666399999999</v>
+      </c>
+      <c r="N96">
+        <v>0.10184777</v>
+      </c>
+      <c r="O96">
+        <v>3.6298222999999998E-2</v>
+      </c>
+      <c r="P96">
+        <v>2.7540281E-2</v>
+      </c>
+      <c r="Q96">
+        <v>0.35947721999999999</v>
+      </c>
+      <c r="R96">
+        <v>0.52516364999999998</v>
+      </c>
+      <c r="S96">
+        <v>0.52516364999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>206000</v>
+      </c>
+      <c r="B97">
+        <v>0.17941383999999999</v>
+      </c>
+      <c r="C97">
+        <v>0.28019702000000002</v>
+      </c>
+      <c r="D97">
+        <v>9.8602309999999999E-2</v>
+      </c>
+      <c r="E97">
+        <v>0.14182162000000001</v>
+      </c>
+      <c r="F97">
+        <v>0.34852082000000001</v>
+      </c>
+      <c r="G97">
+        <v>0.17342444000000001</v>
+      </c>
+      <c r="H97">
+        <v>0.37803522000000001</v>
+      </c>
+      <c r="I97">
+        <v>0.47919004999999998</v>
+      </c>
+      <c r="J97">
+        <v>0.48616876999999997</v>
+      </c>
+      <c r="K97">
+        <v>0.57786340000000003</v>
+      </c>
+      <c r="L97">
+        <v>0.30854305999999998</v>
+      </c>
+      <c r="M97">
+        <v>0.19814815</v>
+      </c>
+      <c r="N97">
+        <v>0.11855136600000001</v>
+      </c>
+      <c r="O97">
+        <v>4.0409609999999999E-2</v>
+      </c>
+      <c r="P97">
+        <v>2.6067797E-2</v>
+      </c>
+      <c r="Q97">
+        <v>0.35530479999999998</v>
+      </c>
+      <c r="R97">
+        <v>0.54033370000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.54033370000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>208000</v>
+      </c>
+      <c r="B98">
+        <v>0.16446888000000001</v>
+      </c>
+      <c r="C98">
+        <v>0.25320995000000002</v>
+      </c>
+      <c r="D98">
+        <v>0.10660254</v>
+      </c>
+      <c r="E98">
+        <v>9.6056500000000003E-2</v>
+      </c>
+      <c r="F98">
+        <v>0.31758133</v>
+      </c>
+      <c r="G98">
+        <v>0.15690925999999999</v>
+      </c>
+      <c r="H98">
+        <v>0.39470076999999998</v>
+      </c>
+      <c r="I98">
+        <v>0.48984346000000001</v>
+      </c>
+      <c r="J98">
+        <v>0.49907646</v>
+      </c>
+      <c r="K98">
+        <v>0.60955040000000005</v>
+      </c>
+      <c r="L98">
+        <v>0.33699580000000001</v>
+      </c>
+      <c r="M98">
+        <v>0.13099748</v>
+      </c>
+      <c r="N98">
+        <v>0.101761304</v>
+      </c>
+      <c r="O98">
+        <v>3.7826686999999998E-2</v>
+      </c>
+      <c r="P98">
+        <v>3.160872E-2</v>
+      </c>
+      <c r="Q98">
+        <v>0.36074486</v>
+      </c>
+      <c r="R98">
+        <v>0.53194149999999996</v>
+      </c>
+      <c r="S98">
+        <v>0.53194149999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>210000</v>
+      </c>
+      <c r="B99">
+        <v>0.16300592</v>
+      </c>
+      <c r="C99">
+        <v>0.24582200000000001</v>
+      </c>
+      <c r="D99">
+        <v>0.1391522</v>
+      </c>
+      <c r="E99">
+        <v>5.0823885999999999E-2</v>
+      </c>
+      <c r="F99">
+        <v>0.31790188000000003</v>
+      </c>
+      <c r="G99">
+        <v>0.15059596</v>
+      </c>
+      <c r="H99">
+        <v>0.31399739999999998</v>
+      </c>
+      <c r="I99">
+        <v>0.42567650000000001</v>
+      </c>
+      <c r="J99">
+        <v>0.43412139999999999</v>
+      </c>
+      <c r="K99">
+        <v>0.56037020000000004</v>
+      </c>
+      <c r="L99">
+        <v>0.29758184999999998</v>
+      </c>
+      <c r="M99">
+        <v>6.7550499999999999E-2</v>
+      </c>
+      <c r="N99">
+        <v>0.11731794500000001</v>
+      </c>
+      <c r="O99">
+        <v>3.7593021999999997E-2</v>
+      </c>
+      <c r="P99">
+        <v>2.410207E-2</v>
+      </c>
+      <c r="Q99">
+        <v>0.35946359999999999</v>
+      </c>
+      <c r="R99">
+        <v>0.53847650000000002</v>
+      </c>
+      <c r="S99">
+        <v>0.53847650000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>212000</v>
+      </c>
+      <c r="B100">
+        <v>0.168629</v>
+      </c>
+      <c r="C100">
+        <v>0.20608528000000001</v>
+      </c>
+      <c r="D100">
+        <v>0.13012847</v>
+      </c>
+      <c r="E100">
+        <v>9.4884485000000005E-2</v>
+      </c>
+      <c r="F100">
+        <v>0.3079113</v>
+      </c>
+      <c r="G100">
+        <v>0.17103367</v>
+      </c>
+      <c r="H100">
+        <v>0.37520605000000001</v>
+      </c>
+      <c r="I100">
+        <v>0.43898110000000001</v>
+      </c>
+      <c r="J100">
+        <v>0.4516715</v>
+      </c>
+      <c r="K100">
+        <v>0.47816642999999998</v>
+      </c>
+      <c r="L100">
+        <v>0.2890182</v>
+      </c>
+      <c r="M100">
+        <v>0.103812315</v>
+      </c>
+      <c r="N100">
+        <v>0.10368176</v>
+      </c>
+      <c r="O100">
+        <v>3.7217878000000003E-2</v>
+      </c>
+      <c r="P100">
+        <v>2.5016879999999998E-2</v>
+      </c>
+      <c r="Q100">
+        <v>0.35809249999999998</v>
+      </c>
+      <c r="R100">
+        <v>0.5240089</v>
+      </c>
+      <c r="S100">
+        <v>0.5240089</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>214000</v>
+      </c>
+      <c r="B101">
+        <v>0.17757194000000001</v>
+      </c>
+      <c r="C101">
+        <v>0.24521318</v>
+      </c>
+      <c r="D101">
+        <v>0.1022501</v>
+      </c>
+      <c r="E101">
+        <v>0.13069306</v>
+      </c>
+      <c r="F101">
+        <v>0.33351922000000001</v>
+      </c>
+      <c r="G101">
+        <v>0.18500377000000001</v>
+      </c>
+      <c r="H101">
+        <v>0.41845097999999997</v>
+      </c>
+      <c r="I101">
+        <v>0.5083337</v>
+      </c>
+      <c r="J101">
+        <v>0.51737</v>
+      </c>
+      <c r="K101">
+        <v>0.55810729999999997</v>
+      </c>
+      <c r="L101">
+        <v>0.42065307000000002</v>
+      </c>
+      <c r="M101">
+        <v>0.13285714000000001</v>
+      </c>
+      <c r="N101">
+        <v>0.10574929</v>
+      </c>
+      <c r="O101">
+        <v>3.8571880000000003E-2</v>
+      </c>
+      <c r="P101">
+        <v>3.160694E-2</v>
+      </c>
+      <c r="Q101">
+        <v>0.3599716</v>
+      </c>
+      <c r="R101">
+        <v>0.53589993999999996</v>
+      </c>
+      <c r="S101">
+        <v>0.53589993999999996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>216000</v>
+      </c>
+      <c r="B102">
+        <v>0.16586055</v>
+      </c>
+      <c r="C102">
+        <v>0.24840280000000001</v>
+      </c>
+      <c r="D102">
+        <v>0.12183645999999999</v>
+      </c>
+      <c r="E102">
+        <v>0.121739745</v>
+      </c>
+      <c r="F102">
+        <v>0.31561622</v>
+      </c>
+      <c r="G102">
+        <v>0.16114469000000001</v>
+      </c>
+      <c r="H102">
+        <v>0.42913162999999999</v>
+      </c>
+      <c r="I102">
+        <v>0.53969650000000002</v>
+      </c>
+      <c r="J102">
+        <v>0.55772489999999997</v>
+      </c>
+      <c r="K102">
+        <v>0.59713249999999995</v>
+      </c>
+      <c r="L102">
+        <v>0.33427570000000001</v>
+      </c>
+      <c r="M102">
+        <v>0.13333333999999999</v>
+      </c>
+      <c r="N102">
+        <v>0.10768340999999999</v>
+      </c>
+      <c r="O102">
+        <v>3.9553188000000003E-2</v>
+      </c>
+      <c r="P102">
+        <v>2.1704338E-2</v>
+      </c>
+      <c r="Q102">
+        <v>0.35646126</v>
+      </c>
+      <c r="R102">
+        <v>0.52540240000000005</v>
+      </c>
+      <c r="S102">
+        <v>0.52540240000000005</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>218000</v>
+      </c>
+      <c r="B103">
+        <v>0.17102882</v>
+      </c>
+      <c r="C103">
+        <v>0.24357346999999999</v>
+      </c>
+      <c r="D103">
+        <v>0.17162007000000001</v>
+      </c>
+      <c r="E103">
+        <v>0.25082507999999998</v>
+      </c>
+      <c r="F103">
+        <v>0.32529459999999999</v>
+      </c>
+      <c r="G103">
+        <v>0.15775079</v>
+      </c>
+      <c r="H103">
+        <v>0.37546964999999999</v>
+      </c>
+      <c r="I103">
+        <v>0.49254979999999998</v>
+      </c>
+      <c r="J103">
+        <v>0.50351113000000003</v>
+      </c>
+      <c r="K103">
+        <v>0.57176757</v>
+      </c>
+      <c r="L103">
+        <v>0.40250059999999999</v>
+      </c>
+      <c r="M103">
+        <v>0.25308641999999998</v>
+      </c>
+      <c r="N103">
+        <v>0.13044654</v>
+      </c>
+      <c r="O103">
+        <v>4.3355299999999999E-2</v>
+      </c>
+      <c r="P103">
+        <v>2.7189616E-2</v>
+      </c>
+      <c r="Q103">
+        <v>0.36161658000000002</v>
+      </c>
+      <c r="R103">
+        <v>0.56260805999999997</v>
+      </c>
+      <c r="S103">
+        <v>0.56260805999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>220000</v>
+      </c>
+      <c r="B104">
+        <v>0.19330737000000001</v>
+      </c>
+      <c r="C104">
+        <v>0.26180702</v>
+      </c>
+      <c r="D104">
+        <v>0.17476305</v>
+      </c>
+      <c r="E104">
+        <v>5.936665E-2</v>
+      </c>
+      <c r="F104">
+        <v>0.36905798000000001</v>
+      </c>
+      <c r="G104">
+        <v>0.17664426999999999</v>
+      </c>
+      <c r="H104">
+        <v>0.39689397999999998</v>
+      </c>
+      <c r="I104">
+        <v>0.45959266999999998</v>
+      </c>
+      <c r="J104">
+        <v>0.46207932000000002</v>
+      </c>
+      <c r="K104">
+        <v>0.55236167000000003</v>
+      </c>
+      <c r="L104">
+        <v>0.32763797</v>
+      </c>
+      <c r="M104">
+        <v>6.5277779999999994E-2</v>
+      </c>
+      <c r="N104">
+        <v>0.10553998000000001</v>
+      </c>
+      <c r="O104">
+        <v>3.6918737E-2</v>
+      </c>
+      <c r="P104">
+        <v>2.8580818000000001E-2</v>
+      </c>
+      <c r="Q104">
+        <v>0.35583794000000002</v>
+      </c>
+      <c r="R104">
+        <v>0.52687729999999999</v>
+      </c>
+      <c r="S104">
+        <v>0.52687729999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>224000</v>
+      </c>
+      <c r="B105">
+        <v>0.16668658</v>
+      </c>
+      <c r="C105">
+        <v>0.26068862999999998</v>
+      </c>
+      <c r="D105">
+        <v>0.12759306000000001</v>
+      </c>
+      <c r="E105">
+        <v>6.1122111999999999E-2</v>
+      </c>
+      <c r="F105">
+        <v>0.32443875</v>
+      </c>
+      <c r="G105">
+        <v>0.14594255</v>
+      </c>
+      <c r="H105">
+        <v>0.41579595000000003</v>
+      </c>
+      <c r="I105">
+        <v>0.49558368000000003</v>
+      </c>
+      <c r="J105">
+        <v>0.50777649999999996</v>
+      </c>
+      <c r="K105">
+        <v>0.58951549999999997</v>
+      </c>
+      <c r="L105">
+        <v>0.29465985</v>
+      </c>
+      <c r="M105">
+        <v>6.5476194000000001E-2</v>
+      </c>
+      <c r="N105">
+        <v>0.13195518000000001</v>
+      </c>
+      <c r="O105">
+        <v>3.6902985999999999E-2</v>
+      </c>
+      <c r="P105">
+        <v>2.3658644E-2</v>
+      </c>
+      <c r="Q105">
+        <v>0.35645603999999997</v>
+      </c>
+      <c r="R105">
+        <v>0.54897284999999996</v>
+      </c>
+      <c r="S105">
+        <v>0.54897284999999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>226000</v>
+      </c>
+      <c r="B106">
+        <v>0.17405212</v>
+      </c>
+      <c r="C106">
+        <v>0.20019558000000001</v>
+      </c>
+      <c r="D106">
+        <v>0.13434984999999999</v>
+      </c>
+      <c r="E106">
+        <v>1.5963119000000001E-2</v>
+      </c>
+      <c r="F106">
+        <v>0.31447150000000001</v>
+      </c>
+      <c r="G106">
+        <v>0.17060164999999999</v>
+      </c>
+      <c r="H106">
+        <v>0.35913613</v>
+      </c>
+      <c r="I106">
+        <v>0.44947841999999999</v>
+      </c>
+      <c r="J106">
+        <v>0.4770739</v>
+      </c>
+      <c r="K106">
+        <v>0.47206094999999998</v>
+      </c>
+      <c r="L106">
+        <v>0.41399629999999998</v>
+      </c>
+      <c r="M106">
+        <v>5.6666670000000002E-2</v>
+      </c>
+      <c r="N106">
+        <v>0.12243489</v>
+      </c>
+      <c r="O106">
+        <v>3.4675159999999997E-2</v>
+      </c>
+      <c r="P106">
+        <v>2.6760262999999999E-2</v>
+      </c>
+      <c r="Q106">
+        <v>0.35761997000000001</v>
+      </c>
+      <c r="R106">
+        <v>0.54149040000000004</v>
+      </c>
+      <c r="S106">
+        <v>0.54149040000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>228000</v>
+      </c>
+      <c r="B107">
+        <v>0.17598659</v>
+      </c>
+      <c r="C107">
+        <v>0.28076556000000003</v>
+      </c>
+      <c r="D107">
+        <v>9.9907969999999999E-2</v>
+      </c>
+      <c r="E107">
+        <v>0.10495667</v>
+      </c>
+      <c r="F107">
+        <v>0.32541369999999997</v>
+      </c>
+      <c r="G107">
+        <v>0.17827715</v>
+      </c>
+      <c r="H107">
+        <v>0.37192609999999998</v>
+      </c>
+      <c r="I107">
+        <v>0.50359640000000006</v>
+      </c>
+      <c r="J107">
+        <v>0.51156650000000004</v>
+      </c>
+      <c r="K107">
+        <v>0.61586689999999999</v>
+      </c>
+      <c r="L107">
+        <v>0.3118918</v>
+      </c>
+      <c r="M107">
+        <v>0.24814813999999999</v>
+      </c>
+      <c r="N107">
+        <v>0.10901457000000001</v>
+      </c>
+      <c r="O107">
+        <v>3.6045816000000001E-2</v>
+      </c>
+      <c r="P107">
+        <v>2.4496403E-2</v>
+      </c>
+      <c r="Q107">
+        <v>0.35519307999999999</v>
+      </c>
+      <c r="R107">
+        <v>0.52474964000000002</v>
+      </c>
+      <c r="S107">
+        <v>0.52474964000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>230000</v>
+      </c>
+      <c r="B108">
+        <v>0.15668327000000001</v>
+      </c>
+      <c r="C108">
+        <v>0.19034307</v>
+      </c>
+      <c r="D108">
+        <v>0.13678907000000001</v>
+      </c>
+      <c r="E108">
+        <v>9.7954360000000004E-2</v>
+      </c>
+      <c r="F108">
+        <v>0.30951877999999999</v>
+      </c>
+      <c r="G108">
+        <v>0.146254</v>
+      </c>
+      <c r="H108">
+        <v>0.35800419999999999</v>
+      </c>
+      <c r="I108">
+        <v>0.44483383999999998</v>
+      </c>
+      <c r="J108">
+        <v>0.45877210000000002</v>
+      </c>
+      <c r="K108">
+        <v>0.56177162999999997</v>
+      </c>
+      <c r="L108">
+        <v>0.3351074</v>
+      </c>
+      <c r="M108">
+        <v>0.14311688</v>
+      </c>
+      <c r="N108">
+        <v>0.10628087999999999</v>
+      </c>
+      <c r="O108">
+        <v>3.9189993999999999E-2</v>
+      </c>
+      <c r="P108">
+        <v>2.5727323999999999E-2</v>
+      </c>
+      <c r="Q108">
+        <v>0.358072</v>
+      </c>
+      <c r="R108">
+        <v>0.52926993</v>
+      </c>
+      <c r="S108">
+        <v>0.52926993</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>232000</v>
+      </c>
+      <c r="B109">
+        <v>0.1762531</v>
+      </c>
+      <c r="C109">
+        <v>0.29459548000000002</v>
+      </c>
+      <c r="D109">
+        <v>0.17641106000000001</v>
+      </c>
+      <c r="E109">
+        <v>3.6280204000000003E-2</v>
+      </c>
+      <c r="F109">
+        <v>0.32850516000000002</v>
+      </c>
+      <c r="G109">
+        <v>0.16981186000000001</v>
+      </c>
+      <c r="H109">
+        <v>0.39558890000000002</v>
+      </c>
+      <c r="I109">
+        <v>0.48559206999999999</v>
+      </c>
+      <c r="J109">
+        <v>0.49415429999999999</v>
+      </c>
+      <c r="K109">
+        <v>0.63130220000000004</v>
+      </c>
+      <c r="L109">
+        <v>0.2638025</v>
+      </c>
+      <c r="M109">
+        <v>9.0285710000000005E-2</v>
+      </c>
+      <c r="N109">
+        <v>0.11460167</v>
+      </c>
+      <c r="O109">
+        <v>3.6805034E-2</v>
+      </c>
+      <c r="P109">
+        <v>2.9679919999999999E-2</v>
+      </c>
+      <c r="Q109">
+        <v>0.35620898000000001</v>
+      </c>
+      <c r="R109">
+        <v>0.53729576000000001</v>
+      </c>
+      <c r="S109">
+        <v>0.53729576000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>234000</v>
+      </c>
+      <c r="B110">
+        <v>0.17316988</v>
+      </c>
+      <c r="C110">
+        <v>0.22001402</v>
+      </c>
+      <c r="D110">
+        <v>9.5398689999999994E-2</v>
+      </c>
+      <c r="E110">
+        <v>3.8692534000000001E-2</v>
+      </c>
+      <c r="F110">
+        <v>0.33487642000000001</v>
+      </c>
+      <c r="G110">
+        <v>0.17379567000000001</v>
+      </c>
+      <c r="H110">
+        <v>0.37674424000000001</v>
+      </c>
+      <c r="I110">
+        <v>0.46087494000000001</v>
+      </c>
+      <c r="J110">
+        <v>0.46550763000000001</v>
+      </c>
+      <c r="K110">
+        <v>0.52021139999999999</v>
+      </c>
+      <c r="L110">
+        <v>0.17741378999999999</v>
+      </c>
+      <c r="M110">
+        <v>0.11151866000000001</v>
+      </c>
+      <c r="N110">
+        <v>0.11936021600000001</v>
+      </c>
+      <c r="O110">
+        <v>4.1431833000000001E-2</v>
+      </c>
+      <c r="P110">
+        <v>2.9337519999999999E-2</v>
+      </c>
+      <c r="Q110">
+        <v>0.36512964999999997</v>
+      </c>
+      <c r="R110">
+        <v>0.55525930000000001</v>
+      </c>
+      <c r="S110">
+        <v>0.55525930000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>236000</v>
+      </c>
+      <c r="B111">
+        <v>0.18358378</v>
+      </c>
+      <c r="C111">
+        <v>0.26804882000000002</v>
+      </c>
+      <c r="D111">
+        <v>0.10826002999999999</v>
+      </c>
+      <c r="E111">
+        <v>0.12953165</v>
+      </c>
+      <c r="F111">
+        <v>0.34564129999999998</v>
+      </c>
+      <c r="G111">
+        <v>0.17732513</v>
+      </c>
+      <c r="H111">
+        <v>0.42535099999999998</v>
+      </c>
+      <c r="I111">
+        <v>0.50248444000000003</v>
+      </c>
+      <c r="J111">
+        <v>0.5172831</v>
+      </c>
+      <c r="K111">
+        <v>0.59748610000000002</v>
+      </c>
+      <c r="L111">
+        <v>0.37251322999999997</v>
+      </c>
+      <c r="M111">
+        <v>0.15814814999999999</v>
+      </c>
+      <c r="N111">
+        <v>0.10234934</v>
+      </c>
+      <c r="O111">
+        <v>3.6788028E-2</v>
+      </c>
+      <c r="P111">
+        <v>2.9675402E-2</v>
+      </c>
+      <c r="Q111">
+        <v>0.35549619999999998</v>
+      </c>
+      <c r="R111">
+        <v>0.52430869999999996</v>
+      </c>
+      <c r="S111">
+        <v>0.52430869999999996</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>238000</v>
+      </c>
+      <c r="B112">
+        <v>0.18346028</v>
+      </c>
+      <c r="C112">
+        <v>0.26515597000000002</v>
+      </c>
+      <c r="D112">
+        <v>0.14319088999999999</v>
+      </c>
+      <c r="E112">
+        <v>5.4892879999999998E-2</v>
+      </c>
+      <c r="F112">
+        <v>0.33972394</v>
+      </c>
+      <c r="G112">
+        <v>0.18683738999999999</v>
+      </c>
+      <c r="H112">
+        <v>0.38652456000000002</v>
+      </c>
+      <c r="I112">
+        <v>0.48359039999999998</v>
+      </c>
+      <c r="J112">
+        <v>0.50377470000000002</v>
+      </c>
+      <c r="K112">
+        <v>0.60366790000000004</v>
+      </c>
+      <c r="L112">
+        <v>0.31420546999999999</v>
+      </c>
+      <c r="M112">
+        <v>8.0505950000000007E-2</v>
+      </c>
+      <c r="N112">
+        <v>0.11913555000000001</v>
+      </c>
+      <c r="O112">
+        <v>3.743788E-2</v>
+      </c>
+      <c r="P112">
+        <v>2.1111732000000001E-2</v>
+      </c>
+      <c r="Q112">
+        <v>0.35599819999999999</v>
+      </c>
+      <c r="R112">
+        <v>0.53368389999999999</v>
+      </c>
+      <c r="S112">
+        <v>0.53368389999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>240000</v>
+      </c>
+      <c r="B113">
+        <v>0.16740485999999999</v>
+      </c>
+      <c r="C113">
+        <v>0.20341604999999999</v>
+      </c>
+      <c r="D113">
+        <v>9.9529290000000006E-2</v>
+      </c>
+      <c r="E113">
+        <v>3.5908476000000002E-2</v>
+      </c>
+      <c r="F113">
+        <v>0.32118513999999998</v>
+      </c>
+      <c r="G113">
+        <v>0.15439016</v>
+      </c>
+      <c r="H113">
+        <v>0.39661622000000002</v>
+      </c>
+      <c r="I113">
+        <v>0.50033289999999997</v>
+      </c>
+      <c r="J113">
+        <v>0.50724840000000004</v>
+      </c>
+      <c r="K113">
+        <v>0.50965612999999999</v>
+      </c>
+      <c r="L113">
+        <v>0.35874321999999997</v>
+      </c>
+      <c r="M113">
+        <v>8.8333330000000002E-2</v>
+      </c>
+      <c r="N113">
+        <v>0.11701198</v>
+      </c>
+      <c r="O113">
+        <v>4.1030905999999999E-2</v>
+      </c>
+      <c r="P113">
+        <v>2.5765840000000002E-2</v>
+      </c>
+      <c r="Q113">
+        <v>0.35859974999999999</v>
+      </c>
+      <c r="R113">
+        <v>0.54240889999999997</v>
+      </c>
+      <c r="S113">
+        <v>0.54240889999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>242000</v>
+      </c>
+      <c r="B114">
+        <v>0.16521140000000001</v>
+      </c>
+      <c r="C114">
+        <v>0.20086075</v>
+      </c>
+      <c r="D114">
+        <v>0.15223651999999999</v>
+      </c>
+      <c r="E114">
+        <v>2.6919423000000001E-2</v>
+      </c>
+      <c r="F114">
+        <v>0.31160234999999997</v>
+      </c>
+      <c r="G114">
+        <v>0.15493728000000001</v>
+      </c>
+      <c r="H114">
+        <v>0.36036527000000002</v>
+      </c>
+      <c r="I114">
+        <v>0.44866060000000002</v>
+      </c>
+      <c r="J114">
+        <v>0.45031777000000001</v>
+      </c>
+      <c r="K114">
+        <v>0.50212263999999995</v>
+      </c>
+      <c r="L114">
+        <v>0.25401172</v>
+      </c>
+      <c r="M114">
+        <v>3.9174642000000003E-2</v>
+      </c>
+      <c r="N114">
+        <v>0.12032943</v>
+      </c>
+      <c r="O114">
+        <v>3.7685233999999998E-2</v>
+      </c>
+      <c r="P114">
+        <v>2.1615550000000001E-2</v>
+      </c>
+      <c r="Q114">
+        <v>0.35350403000000002</v>
+      </c>
+      <c r="R114">
+        <v>0.5331342</v>
+      </c>
+      <c r="S114">
+        <v>0.5331342</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>246000</v>
+      </c>
+      <c r="B115">
+        <v>0.16120693</v>
+      </c>
+      <c r="C115">
+        <v>0.24575679</v>
+      </c>
+      <c r="D115">
+        <v>0.12127033600000001</v>
+      </c>
+      <c r="E115">
+        <v>9.4629889999999994E-2</v>
+      </c>
+      <c r="F115">
+        <v>0.31876525</v>
+      </c>
+      <c r="G115">
+        <v>0.15039240000000001</v>
+      </c>
+      <c r="H115">
+        <v>0.40086743000000002</v>
+      </c>
+      <c r="I115">
+        <v>0.46894422000000002</v>
+      </c>
+      <c r="J115">
+        <v>0.48437455000000001</v>
+      </c>
+      <c r="K115">
+        <v>0.53834879999999996</v>
+      </c>
+      <c r="L115">
+        <v>0.38053759999999998</v>
+      </c>
+      <c r="M115">
+        <v>0.10072464</v>
+      </c>
+      <c r="N115">
+        <v>0.10112082</v>
+      </c>
+      <c r="O115">
+        <v>3.5782534999999997E-2</v>
+      </c>
+      <c r="P115">
+        <v>2.3041553999999999E-2</v>
+      </c>
+      <c r="Q115">
+        <v>0.36034389999999999</v>
+      </c>
+      <c r="R115">
+        <v>0.52028890000000005</v>
+      </c>
+      <c r="S115">
+        <v>0.52028890000000005</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>248000</v>
+      </c>
+      <c r="B116">
+        <v>0.16181667</v>
+      </c>
+      <c r="C116">
+        <v>0.27412108000000002</v>
+      </c>
+      <c r="D116">
+        <v>0.1315075</v>
+      </c>
+      <c r="E116">
+        <v>8.5900799999999999E-2</v>
+      </c>
+      <c r="F116">
+        <v>0.32148223999999997</v>
+      </c>
+      <c r="G116">
+        <v>0.15678160999999999</v>
+      </c>
+      <c r="H116">
+        <v>0.34459472000000002</v>
+      </c>
+      <c r="I116">
+        <v>0.46521380000000001</v>
+      </c>
+      <c r="J116">
+        <v>0.4678021</v>
+      </c>
+      <c r="K116">
+        <v>0.56256174999999997</v>
+      </c>
+      <c r="L116">
+        <v>0.43238759999999998</v>
+      </c>
+      <c r="M116">
+        <v>9.2564105999999993E-2</v>
+      </c>
+      <c r="N116">
+        <v>0.12179667</v>
+      </c>
+      <c r="O116">
+        <v>3.7135492999999999E-2</v>
+      </c>
+      <c r="P116">
+        <v>2.5239787999999999E-2</v>
+      </c>
+      <c r="Q116">
+        <v>0.35741975999999998</v>
+      </c>
+      <c r="R116">
+        <v>0.54159193999999999</v>
+      </c>
+      <c r="S116">
+        <v>0.54159193999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>250000</v>
+      </c>
+      <c r="B117">
+        <v>0.17014119999999999</v>
+      </c>
+      <c r="C117">
+        <v>0.24353306999999999</v>
+      </c>
+      <c r="D117">
+        <v>0.34208496999999999</v>
+      </c>
+      <c r="E117">
+        <v>1.8875548999999998E-2</v>
+      </c>
+      <c r="F117">
+        <v>0.31363849999999999</v>
+      </c>
+      <c r="G117">
+        <v>0.16841227</v>
+      </c>
+      <c r="H117">
+        <v>0.38034301999999998</v>
+      </c>
+      <c r="I117">
+        <v>0.47837937000000003</v>
+      </c>
+      <c r="J117">
+        <v>0.48233247000000001</v>
+      </c>
+      <c r="K117">
+        <v>0.58008439999999994</v>
+      </c>
+      <c r="L117">
+        <v>0.49067587000000001</v>
+      </c>
+      <c r="M117">
+        <v>4.9503967000000003E-2</v>
+      </c>
+      <c r="N117">
+        <v>0.11188582</v>
+      </c>
+      <c r="O117">
+        <v>3.5805687000000003E-2</v>
+      </c>
+      <c r="P117">
+        <v>2.2141215999999998E-2</v>
+      </c>
+      <c r="Q117">
+        <v>0.35623977000000001</v>
+      </c>
+      <c r="R117">
+        <v>0.52607333999999994</v>
+      </c>
+      <c r="S117">
+        <v>0.52607333999999994</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>252000</v>
+      </c>
+      <c r="B118">
+        <v>0.17348115</v>
+      </c>
+      <c r="C118">
+        <v>0.24228558</v>
+      </c>
+      <c r="D118">
+        <v>0.1004371</v>
+      </c>
+      <c r="E118">
+        <v>8.1056100000000006E-2</v>
+      </c>
+      <c r="F118">
+        <v>0.3268103</v>
+      </c>
+      <c r="G118">
+        <v>0.1784056</v>
+      </c>
+      <c r="H118">
+        <v>0.37603718000000003</v>
+      </c>
+      <c r="I118">
+        <v>0.49613327000000002</v>
+      </c>
+      <c r="J118">
+        <v>0.51590329999999995</v>
+      </c>
+      <c r="K118">
+        <v>0.60723709999999997</v>
+      </c>
+      <c r="L118">
+        <v>0.38228136000000001</v>
+      </c>
+      <c r="M118">
+        <v>9.6336210000000005E-2</v>
+      </c>
+      <c r="N118">
+        <v>0.10684578</v>
+      </c>
+      <c r="O118">
+        <v>3.6306680000000001E-2</v>
+      </c>
+      <c r="P118">
+        <v>3.1138096000000001E-2</v>
+      </c>
+      <c r="Q118">
+        <v>0.35809819999999998</v>
+      </c>
+      <c r="R118">
+        <v>0.53238887000000001</v>
+      </c>
+      <c r="S118">
+        <v>0.53238887000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>254000</v>
+      </c>
+      <c r="B119">
+        <v>0.15536293000000001</v>
+      </c>
+      <c r="C119">
+        <v>0.23869824000000001</v>
+      </c>
+      <c r="D119">
+        <v>0.11447436</v>
+      </c>
+      <c r="E119">
+        <v>9.3259889999999998E-2</v>
+      </c>
+      <c r="F119">
+        <v>0.28729564000000002</v>
+      </c>
+      <c r="G119">
+        <v>0.15645616000000001</v>
+      </c>
+      <c r="H119">
+        <v>0.38454192999999998</v>
+      </c>
+      <c r="I119">
+        <v>0.46912851999999999</v>
+      </c>
+      <c r="J119">
+        <v>0.48170935999999998</v>
+      </c>
+      <c r="K119">
+        <v>0.59422870000000005</v>
+      </c>
+      <c r="L119">
+        <v>0.31080666000000001</v>
+      </c>
+      <c r="M119">
+        <v>0.11531986</v>
+      </c>
+      <c r="N119">
+        <v>0.11488996999999999</v>
+      </c>
+      <c r="O119">
+        <v>3.9197917999999998E-2</v>
+      </c>
+      <c r="P119">
+        <v>2.7754286E-2</v>
+      </c>
+      <c r="Q119">
+        <v>0.35973072</v>
+      </c>
+      <c r="R119">
+        <v>0.54157310000000003</v>
+      </c>
+      <c r="S119">
+        <v>0.54157310000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>256000</v>
+      </c>
+      <c r="B120">
+        <v>0.16257988000000001</v>
+      </c>
+      <c r="C120">
+        <v>0.21285270000000001</v>
+      </c>
+      <c r="D120">
+        <v>0.14250589999999999</v>
+      </c>
+      <c r="E120">
+        <v>4.115506E-2</v>
+      </c>
+      <c r="F120">
+        <v>0.30109019999999997</v>
+      </c>
+      <c r="G120">
+        <v>0.15535197000000001</v>
+      </c>
+      <c r="H120">
+        <v>0.36245843999999999</v>
+      </c>
+      <c r="I120">
+        <v>0.47546994999999997</v>
+      </c>
+      <c r="J120">
+        <v>0.48832039999999999</v>
+      </c>
+      <c r="K120">
+        <v>0.51882183999999998</v>
+      </c>
+      <c r="L120">
+        <v>0.35846647999999998</v>
+      </c>
+      <c r="M120">
+        <v>0.12473118</v>
+      </c>
+      <c r="N120">
+        <v>0.12064772</v>
+      </c>
+      <c r="O120">
+        <v>4.0309273E-2</v>
+      </c>
+      <c r="P120">
+        <v>3.090704E-2</v>
+      </c>
+      <c r="Q120">
+        <v>0.3657089</v>
+      </c>
+      <c r="R120">
+        <v>0.55757319999999999</v>
+      </c>
+      <c r="S120">
+        <v>0.55757319999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>258000</v>
+      </c>
+      <c r="B121">
+        <v>0.18050218000000001</v>
+      </c>
+      <c r="C121">
+        <v>0.26802801999999998</v>
+      </c>
+      <c r="D121">
+        <v>0.13675072999999999</v>
+      </c>
+      <c r="E121">
+        <v>8.1256874000000007E-2</v>
+      </c>
+      <c r="F121">
+        <v>0.32568780000000003</v>
+      </c>
+      <c r="G121">
+        <v>0.17886252999999999</v>
+      </c>
+      <c r="H121">
+        <v>0.34274733000000002</v>
+      </c>
+      <c r="I121">
+        <v>0.51332250000000001</v>
+      </c>
+      <c r="J121">
+        <v>0.52284900000000001</v>
+      </c>
+      <c r="K121">
+        <v>0.56445279999999998</v>
+      </c>
+      <c r="L121">
+        <v>0.38324022000000002</v>
+      </c>
+      <c r="M121">
+        <v>0.15288462</v>
+      </c>
+      <c r="N121">
+        <v>0.114524</v>
+      </c>
+      <c r="O121">
+        <v>3.9282060000000001E-2</v>
+      </c>
+      <c r="P121">
+        <v>2.840933E-2</v>
+      </c>
+      <c r="Q121">
+        <v>0.35963023</v>
+      </c>
+      <c r="R121">
+        <v>0.54184615999999997</v>
+      </c>
+      <c r="S121">
+        <v>0.54184615999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>260000</v>
+      </c>
+      <c r="B122">
+        <v>0.15514507999999999</v>
+      </c>
+      <c r="C122">
+        <v>0.24419979999999999</v>
+      </c>
+      <c r="D122">
+        <v>0.11987391999999999</v>
+      </c>
+      <c r="E122">
+        <v>3.0215438000000001E-2</v>
+      </c>
+      <c r="F122">
+        <v>0.28561165999999999</v>
+      </c>
+      <c r="G122">
+        <v>0.14408468999999999</v>
+      </c>
+      <c r="H122">
+        <v>0.32828109999999999</v>
+      </c>
+      <c r="I122">
+        <v>0.44663180000000002</v>
+      </c>
+      <c r="J122">
+        <v>0.47926864000000002</v>
+      </c>
+      <c r="K122">
+        <v>0.57880770000000004</v>
+      </c>
+      <c r="L122">
+        <v>0.31748122000000001</v>
+      </c>
+      <c r="M122">
+        <v>5.9102565000000003E-2</v>
+      </c>
+      <c r="N122">
+        <v>0.11796541000000001</v>
+      </c>
+      <c r="O122">
+        <v>3.7195005000000003E-2</v>
+      </c>
+      <c r="P122">
+        <v>2.4553636E-2</v>
+      </c>
+      <c r="Q122">
+        <v>0.36173656999999998</v>
+      </c>
+      <c r="R122">
+        <v>0.54145103999999999</v>
+      </c>
+      <c r="S122">
+        <v>0.54145103999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>262000</v>
+      </c>
+      <c r="B123">
+        <v>0.17490098000000001</v>
+      </c>
+      <c r="C123">
+        <v>0.25686534999999999</v>
+      </c>
+      <c r="D123">
+        <v>0.11242929</v>
+      </c>
+      <c r="E123">
+        <v>4.8698470000000001E-2</v>
+      </c>
+      <c r="F123">
+        <v>0.32318696000000002</v>
+      </c>
+      <c r="G123">
+        <v>0.17004082000000001</v>
+      </c>
+      <c r="H123">
+        <v>0.38945617999999999</v>
+      </c>
+      <c r="I123">
+        <v>0.47639387999999999</v>
+      </c>
+      <c r="J123">
+        <v>0.48609461999999998</v>
+      </c>
+      <c r="K123">
+        <v>0.58111113000000003</v>
+      </c>
+      <c r="L123">
+        <v>0.32684222000000002</v>
+      </c>
+      <c r="M123">
+        <v>0.15343137000000001</v>
+      </c>
+      <c r="N123">
+        <v>0.10264225</v>
+      </c>
+      <c r="O123">
+        <v>3.8024835E-2</v>
+      </c>
+      <c r="P123">
+        <v>3.4595437E-2</v>
+      </c>
+      <c r="Q123">
+        <v>0.36314883999999997</v>
+      </c>
+      <c r="R123">
+        <v>0.53841125999999995</v>
+      </c>
+      <c r="S123">
+        <v>0.53841125999999995</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>264000</v>
+      </c>
+      <c r="B124">
+        <v>0.16685095</v>
+      </c>
+      <c r="C124">
+        <v>0.19850548000000001</v>
+      </c>
+      <c r="D124">
+        <v>0.14594439000000001</v>
+      </c>
+      <c r="E124">
+        <v>6.1990343000000003E-2</v>
+      </c>
+      <c r="F124">
+        <v>0.30832604000000002</v>
+      </c>
+      <c r="G124">
+        <v>0.16335076000000001</v>
+      </c>
+      <c r="H124">
+        <v>0.37782818000000001</v>
+      </c>
+      <c r="I124">
+        <v>0.51227210000000001</v>
+      </c>
+      <c r="J124">
+        <v>0.51940565999999999</v>
+      </c>
+      <c r="K124">
+        <v>0.52678480000000005</v>
+      </c>
+      <c r="L124">
+        <v>0.28147155000000001</v>
+      </c>
+      <c r="M124">
+        <v>0.27037035999999998</v>
+      </c>
+      <c r="N124">
+        <v>0.11400629599999999</v>
+      </c>
+      <c r="O124">
+        <v>4.0481610000000001E-2</v>
+      </c>
+      <c r="P124">
+        <v>3.5425495000000001E-2</v>
+      </c>
+      <c r="Q124">
+        <v>0.36302325000000002</v>
+      </c>
+      <c r="R124">
+        <v>0.55293614000000002</v>
+      </c>
+      <c r="S124">
+        <v>0.55293614000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>268000</v>
+      </c>
+      <c r="B125">
+        <v>0.19637547</v>
+      </c>
+      <c r="C125">
+        <v>0.2344089</v>
+      </c>
+      <c r="D125">
+        <v>0.21030378</v>
+      </c>
+      <c r="E125">
+        <v>6.2660220000000004E-3</v>
+      </c>
+      <c r="F125">
+        <v>0.3559196</v>
+      </c>
+      <c r="G125">
+        <v>0.19632925000000001</v>
+      </c>
+      <c r="H125">
+        <v>0.37775686000000003</v>
+      </c>
+      <c r="I125">
+        <v>0.44298702000000001</v>
+      </c>
+      <c r="J125">
+        <v>0.45092067000000002</v>
+      </c>
+      <c r="K125">
+        <v>0.48473086999999998</v>
+      </c>
+      <c r="L125">
+        <v>0.28869504000000001</v>
+      </c>
+      <c r="M125">
+        <v>2.6923077E-2</v>
+      </c>
+      <c r="N125">
+        <v>0.10052509599999999</v>
+      </c>
+      <c r="O125">
+        <v>3.8571168000000003E-2</v>
+      </c>
+      <c r="P125">
+        <v>2.8370280000000001E-2</v>
+      </c>
+      <c r="Q125">
+        <v>0.35695270000000001</v>
+      </c>
+      <c r="R125">
+        <v>0.52441906999999999</v>
+      </c>
+      <c r="S125">
+        <v>0.52441906999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>270000</v>
+      </c>
+      <c r="B126">
+        <v>0.16578385000000001</v>
+      </c>
+      <c r="C126">
+        <v>0.25048472999999999</v>
+      </c>
+      <c r="D126">
+        <v>9.9926219999999996E-2</v>
+      </c>
+      <c r="E126">
+        <v>6.9925743000000002E-3</v>
+      </c>
+      <c r="F126">
+        <v>0.29649989999999998</v>
+      </c>
+      <c r="G126">
+        <v>0.16373362</v>
+      </c>
+      <c r="H126">
+        <v>0.38280836000000001</v>
+      </c>
+      <c r="I126">
+        <v>0.48859057</v>
+      </c>
+      <c r="J126">
+        <v>0.49269885000000002</v>
+      </c>
+      <c r="K126">
+        <v>0.57366793999999999</v>
+      </c>
+      <c r="L126">
+        <v>0.34836941999999999</v>
+      </c>
+      <c r="M126">
+        <v>8.8709679999999999E-3</v>
+      </c>
+      <c r="N126">
+        <v>0.11739419</v>
+      </c>
+      <c r="O126">
+        <v>3.667223E-2</v>
+      </c>
+      <c r="P126">
+        <v>2.5111850000000002E-2</v>
+      </c>
+      <c r="Q126">
+        <v>0.35974519999999999</v>
+      </c>
+      <c r="R126">
+        <v>0.53892344000000003</v>
+      </c>
+      <c r="S126">
+        <v>0.53892344000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>272000</v>
+      </c>
+      <c r="B127">
+        <v>0.15734925999999999</v>
+      </c>
+      <c r="C127">
+        <v>0.24246470000000001</v>
+      </c>
+      <c r="D127">
+        <v>0.15361722</v>
+      </c>
+      <c r="E127">
+        <v>0.11099513599999999</v>
+      </c>
+      <c r="F127">
+        <v>0.28520557000000002</v>
+      </c>
+      <c r="G127">
+        <v>0.16122617</v>
+      </c>
+      <c r="H127">
+        <v>0.41311284999999998</v>
+      </c>
+      <c r="I127">
+        <v>0.47957300000000003</v>
+      </c>
+      <c r="J127">
+        <v>0.48693325999999998</v>
+      </c>
+      <c r="K127">
+        <v>0.59525377000000002</v>
+      </c>
+      <c r="L127">
+        <v>0.29964154999999998</v>
+      </c>
+      <c r="M127">
+        <v>0.16018099999999999</v>
+      </c>
+      <c r="N127">
+        <v>0.11390359999999999</v>
+      </c>
+      <c r="O127">
+        <v>3.7788160000000001E-2</v>
+      </c>
+      <c r="P127">
+        <v>2.9885235999999999E-2</v>
+      </c>
+      <c r="Q127">
+        <v>0.35680464000000001</v>
+      </c>
+      <c r="R127">
+        <v>0.53838180000000002</v>
+      </c>
+      <c r="S127">
+        <v>0.53838180000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>274000</v>
+      </c>
+      <c r="B128">
+        <v>0.17090138999999999</v>
+      </c>
+      <c r="C128">
+        <v>0.25492382000000002</v>
+      </c>
+      <c r="D128">
+        <v>0.19215794999999999</v>
+      </c>
+      <c r="E128">
+        <v>6.6024810000000003E-2</v>
+      </c>
+      <c r="F128">
+        <v>0.31781870000000001</v>
+      </c>
+      <c r="G128">
+        <v>0.16429614000000001</v>
+      </c>
+      <c r="H128">
+        <v>0.35239910000000002</v>
+      </c>
+      <c r="I128">
+        <v>0.45199850000000003</v>
+      </c>
+      <c r="J128">
+        <v>0.45344433000000001</v>
+      </c>
+      <c r="K128">
+        <v>0.56604529999999997</v>
+      </c>
+      <c r="L128">
+        <v>0.3338257</v>
+      </c>
+      <c r="M128">
+        <v>0.10101010000000001</v>
+      </c>
+      <c r="N128">
+        <v>0.11737272999999999</v>
+      </c>
+      <c r="O128">
+        <v>3.8536340000000002E-2</v>
+      </c>
+      <c r="P128">
+        <v>2.9459136E-2</v>
+      </c>
+      <c r="Q128">
+        <v>0.35927182000000002</v>
+      </c>
+      <c r="R128">
+        <v>0.54464005999999998</v>
+      </c>
+      <c r="S128">
+        <v>0.54464005999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>276000</v>
+      </c>
+      <c r="B129">
+        <v>0.15999389</v>
+      </c>
+      <c r="C129">
+        <v>0.20678502000000001</v>
+      </c>
+      <c r="D129">
+        <v>9.5612383999999995E-2</v>
+      </c>
+      <c r="E129">
+        <v>8.8129310000000002E-2</v>
+      </c>
+      <c r="F129">
+        <v>0.29628283</v>
+      </c>
+      <c r="G129">
+        <v>0.15859042000000001</v>
+      </c>
+      <c r="H129">
+        <v>0.35820055000000001</v>
+      </c>
+      <c r="I129">
+        <v>0.46496349999999997</v>
+      </c>
+      <c r="J129">
+        <v>0.46788122999999998</v>
+      </c>
+      <c r="K129">
+        <v>0.51144993000000005</v>
+      </c>
+      <c r="L129">
+        <v>0.24662147000000001</v>
+      </c>
+      <c r="M129">
+        <v>0.17272726999999999</v>
+      </c>
+      <c r="N129">
+        <v>0.12535317000000001</v>
+      </c>
+      <c r="O129">
+        <v>3.8112029999999998E-2</v>
+      </c>
+      <c r="P129">
+        <v>2.7919942999999999E-2</v>
+      </c>
+      <c r="Q129">
+        <v>0.36137809999999998</v>
+      </c>
+      <c r="R129">
+        <v>0.55276320000000001</v>
+      </c>
+      <c r="S129">
+        <v>0.55276320000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>278000</v>
+      </c>
+      <c r="B130">
+        <v>0.18129266999999999</v>
+      </c>
+      <c r="C130">
+        <v>0.24812613</v>
+      </c>
+      <c r="D130">
+        <v>0.10117846</v>
+      </c>
+      <c r="E130">
+        <v>3.0559896E-2</v>
+      </c>
+      <c r="F130">
+        <v>0.31681266000000002</v>
+      </c>
+      <c r="G130">
+        <v>0.17906316</v>
+      </c>
+      <c r="H130">
+        <v>0.40078340000000001</v>
+      </c>
+      <c r="I130">
+        <v>0.50298330000000002</v>
+      </c>
+      <c r="J130">
+        <v>0.50460099999999997</v>
+      </c>
+      <c r="K130">
+        <v>0.59583807</v>
+      </c>
+      <c r="L130">
+        <v>0.31828400000000001</v>
+      </c>
+      <c r="M130">
+        <v>0.11803543</v>
+      </c>
+      <c r="N130">
+        <v>0.10968079</v>
+      </c>
+      <c r="O130">
+        <v>3.807725E-2</v>
+      </c>
+      <c r="P130">
+        <v>2.5917895E-2</v>
+      </c>
+      <c r="Q130">
+        <v>0.35769287</v>
+      </c>
+      <c r="R130">
+        <v>0.53136870000000003</v>
+      </c>
+      <c r="S130">
+        <v>0.53136870000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>280000</v>
+      </c>
+      <c r="B131">
+        <v>0.16446072</v>
+      </c>
+      <c r="C131">
+        <v>0.24497711999999999</v>
+      </c>
+      <c r="D131">
+        <v>0.20630129999999999</v>
+      </c>
+      <c r="E131">
+        <v>1.5089173000000001E-2</v>
+      </c>
+      <c r="F131">
+        <v>0.31062265999999999</v>
+      </c>
+      <c r="G131">
+        <v>0.16036959000000001</v>
+      </c>
+      <c r="H131">
+        <v>0.37310344000000001</v>
+      </c>
+      <c r="I131">
+        <v>0.43354493</v>
+      </c>
+      <c r="J131">
+        <v>0.45015946000000001</v>
+      </c>
+      <c r="K131">
+        <v>0.54353549999999995</v>
+      </c>
+      <c r="L131">
+        <v>0.34269961999999998</v>
+      </c>
+      <c r="M131">
+        <v>0.10192308</v>
+      </c>
+      <c r="N131">
+        <v>0.12428934</v>
+      </c>
+      <c r="O131">
+        <v>3.9187156000000001E-2</v>
+      </c>
+      <c r="P131">
+        <v>2.6145064999999999E-2</v>
+      </c>
+      <c r="Q131">
+        <v>0.36496517000000001</v>
+      </c>
+      <c r="R131">
+        <v>0.55458647000000005</v>
+      </c>
+      <c r="S131">
+        <v>0.55458647000000005</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>282000</v>
+      </c>
+      <c r="B132">
+        <v>0.16513227999999999</v>
+      </c>
+      <c r="C132">
+        <v>0.24098769</v>
+      </c>
+      <c r="D132">
+        <v>0.16450655</v>
+      </c>
+      <c r="E132">
+        <v>7.7518514999999996E-2</v>
+      </c>
+      <c r="F132">
+        <v>0.31300650000000002</v>
+      </c>
+      <c r="G132">
+        <v>0.16233823999999999</v>
+      </c>
+      <c r="H132">
+        <v>0.35728054999999997</v>
+      </c>
+      <c r="I132">
+        <v>0.47575297999999999</v>
+      </c>
+      <c r="J132">
+        <v>0.48107448000000003</v>
+      </c>
+      <c r="K132">
+        <v>0.54987350000000002</v>
+      </c>
+      <c r="L132">
+        <v>0.45889701999999999</v>
+      </c>
+      <c r="M132">
+        <v>0.11542146</v>
+      </c>
+      <c r="N132">
+        <v>0.11686845999999999</v>
+      </c>
+      <c r="O132">
+        <v>3.7750907E-2</v>
+      </c>
+      <c r="P132">
+        <v>2.1257116999999999E-2</v>
+      </c>
+      <c r="Q132">
+        <v>0.35616195</v>
+      </c>
+      <c r="R132">
+        <v>0.53203833</v>
+      </c>
+      <c r="S132">
+        <v>0.53203833</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>284000</v>
+      </c>
+      <c r="B133">
+        <v>0.18160369000000001</v>
+      </c>
+      <c r="C133">
+        <v>0.21161099</v>
+      </c>
+      <c r="D133">
+        <v>0.12525881999999999</v>
+      </c>
+      <c r="E133">
+        <v>6.3674830000000002E-2</v>
+      </c>
+      <c r="F133">
+        <v>0.36182249999999999</v>
+      </c>
+      <c r="G133">
+        <v>0.16482414000000001</v>
+      </c>
+      <c r="H133">
+        <v>0.43566290000000002</v>
+      </c>
+      <c r="I133">
+        <v>0.48768454999999999</v>
+      </c>
+      <c r="J133">
+        <v>0.49812663000000001</v>
+      </c>
+      <c r="K133">
+        <v>0.52382289999999998</v>
+      </c>
+      <c r="L133">
+        <v>0.2799278</v>
+      </c>
+      <c r="M133">
+        <v>7.8703700000000001E-2</v>
+      </c>
+      <c r="N133">
+        <v>0.10996825</v>
+      </c>
+      <c r="O133">
+        <v>3.8636695999999998E-2</v>
+      </c>
+      <c r="P133">
+        <v>2.4886704999999999E-2</v>
+      </c>
+      <c r="Q133">
+        <v>0.35995529999999998</v>
+      </c>
+      <c r="R133">
+        <v>0.53344667000000001</v>
+      </c>
+      <c r="S133">
+        <v>0.53344667000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>286000</v>
+      </c>
+      <c r="B134">
+        <v>0.17178267</v>
+      </c>
+      <c r="C134">
+        <v>0.23905145999999999</v>
+      </c>
+      <c r="D134">
+        <v>0.106915</v>
+      </c>
+      <c r="E134">
+        <v>5.8995730000000003E-2</v>
+      </c>
+      <c r="F134">
+        <v>0.32391497000000002</v>
+      </c>
+      <c r="G134">
+        <v>0.16404223000000001</v>
+      </c>
+      <c r="H134">
+        <v>0.3501359</v>
+      </c>
+      <c r="I134">
+        <v>0.43217813999999999</v>
+      </c>
+      <c r="J134">
+        <v>0.43325242000000003</v>
+      </c>
+      <c r="K134">
+        <v>0.54815970000000003</v>
+      </c>
+      <c r="L134">
+        <v>0.19814534</v>
+      </c>
+      <c r="M134">
+        <v>9.5151514000000006E-2</v>
+      </c>
+      <c r="N134">
+        <v>0.12943584</v>
+      </c>
+      <c r="O134">
+        <v>4.3186705999999998E-2</v>
+      </c>
+      <c r="P134">
+        <v>2.862369E-2</v>
+      </c>
+      <c r="Q134">
+        <v>0.35734270000000001</v>
+      </c>
+      <c r="R134">
+        <v>0.55858903999999998</v>
+      </c>
+      <c r="S134">
+        <v>0.55858903999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>288000</v>
+      </c>
+      <c r="B135">
+        <v>0.14555746</v>
+      </c>
+      <c r="C135">
+        <v>0.22071476000000001</v>
+      </c>
+      <c r="D135">
+        <v>9.3091869999999993E-2</v>
+      </c>
+      <c r="E135">
+        <v>5.5988955999999999E-2</v>
+      </c>
+      <c r="F135">
+        <v>0.27171719999999999</v>
+      </c>
+      <c r="G135">
+        <v>0.14243233</v>
+      </c>
+      <c r="H135">
+        <v>0.32691446000000002</v>
+      </c>
+      <c r="I135">
+        <v>0.41899964000000001</v>
+      </c>
+      <c r="J135">
+        <v>0.43211274999999999</v>
+      </c>
+      <c r="K135">
+        <v>0.52918080000000001</v>
+      </c>
+      <c r="L135">
+        <v>0.20930053000000001</v>
+      </c>
+      <c r="M135">
+        <v>8.3456180000000005E-2</v>
+      </c>
+      <c r="N135">
+        <v>0.12286996</v>
+      </c>
+      <c r="O135">
+        <v>4.1096263000000001E-2</v>
+      </c>
+      <c r="P135">
+        <v>3.3137627000000003E-2</v>
+      </c>
+      <c r="Q135">
+        <v>0.36785420000000002</v>
+      </c>
+      <c r="R135">
+        <v>0.56495799999999996</v>
+      </c>
+      <c r="S135">
+        <v>0.56495799999999996</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>290000</v>
+      </c>
+      <c r="B136">
+        <v>0.15814586</v>
+      </c>
+      <c r="C136">
+        <v>0.20820452</v>
+      </c>
+      <c r="D136">
+        <v>0.12542433</v>
+      </c>
+      <c r="E136">
+        <v>5.2895396999999997E-2</v>
+      </c>
+      <c r="F136">
+        <v>0.29625259999999998</v>
+      </c>
+      <c r="G136">
+        <v>0.15043577999999999</v>
+      </c>
+      <c r="H136">
+        <v>0.3638634</v>
+      </c>
+      <c r="I136">
+        <v>0.47101870000000001</v>
+      </c>
+      <c r="J136">
+        <v>0.47743641999999997</v>
+      </c>
+      <c r="K136">
+        <v>0.56922740000000005</v>
+      </c>
+      <c r="L136">
+        <v>0.29362192999999998</v>
+      </c>
+      <c r="M136">
+        <v>0.20885417000000001</v>
+      </c>
+      <c r="N136">
+        <v>0.12308558999999999</v>
+      </c>
+      <c r="O136">
+        <v>3.9560404E-2</v>
+      </c>
+      <c r="P136">
+        <v>2.9639895999999999E-2</v>
+      </c>
+      <c r="Q136">
+        <v>0.36518788000000002</v>
+      </c>
+      <c r="R136">
+        <v>0.55747349999999996</v>
+      </c>
+      <c r="S136">
+        <v>0.55747349999999996</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>292000</v>
+      </c>
+      <c r="B137">
+        <v>0.17758375000000001</v>
+      </c>
+      <c r="C137">
+        <v>0.21262263000000001</v>
+      </c>
+      <c r="D137">
+        <v>0.16080961999999999</v>
+      </c>
+      <c r="E137">
+        <v>6.1024502000000001E-2</v>
+      </c>
+      <c r="F137">
+        <v>0.33777103000000003</v>
+      </c>
+      <c r="G137">
+        <v>0.16772300000000001</v>
+      </c>
+      <c r="H137">
+        <v>0.38084084000000001</v>
+      </c>
+      <c r="I137">
+        <v>0.46022537000000002</v>
+      </c>
+      <c r="J137">
+        <v>0.46740412999999997</v>
+      </c>
+      <c r="K137">
+        <v>0.51221720000000004</v>
+      </c>
+      <c r="L137">
+        <v>0.26288794999999998</v>
+      </c>
+      <c r="M137">
+        <v>0.12502806</v>
+      </c>
+      <c r="N137">
+        <v>0.11956422</v>
+      </c>
+      <c r="O137">
+        <v>3.6534839999999999E-2</v>
+      </c>
+      <c r="P137">
+        <v>2.7769564E-2</v>
+      </c>
+      <c r="Q137">
+        <v>0.35894095999999998</v>
+      </c>
+      <c r="R137">
+        <v>0.54280925000000002</v>
+      </c>
+      <c r="S137">
+        <v>0.54280925000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>294000</v>
+      </c>
+      <c r="B138">
+        <v>0.17982103999999999</v>
+      </c>
+      <c r="C138">
+        <v>0.24220884000000001</v>
+      </c>
+      <c r="D138">
+        <v>0.11219419999999999</v>
+      </c>
+      <c r="E138">
+        <v>0.12077032</v>
+      </c>
+      <c r="F138">
+        <v>0.33381604999999998</v>
+      </c>
+      <c r="G138">
+        <v>0.17574374000000001</v>
+      </c>
+      <c r="H138">
+        <v>0.38150683000000002</v>
+      </c>
+      <c r="I138">
+        <v>0.45472879999999999</v>
+      </c>
+      <c r="J138">
+        <v>0.46182529999999999</v>
+      </c>
+      <c r="K138">
+        <v>0.54966610000000005</v>
+      </c>
+      <c r="L138">
+        <v>0.29259410000000002</v>
+      </c>
+      <c r="M138">
+        <v>0.14175825</v>
+      </c>
+      <c r="N138">
+        <v>0.110201195</v>
+      </c>
+      <c r="O138">
+        <v>3.9002101999999997E-2</v>
+      </c>
+      <c r="P138">
+        <v>3.2204740000000003E-2</v>
+      </c>
+      <c r="Q138">
+        <v>0.36436468</v>
+      </c>
+      <c r="R138">
+        <v>0.54577279999999995</v>
+      </c>
+      <c r="S138">
+        <v>0.54577279999999995</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>296000</v>
+      </c>
+      <c r="B139">
+        <v>0.19353127000000001</v>
+      </c>
+      <c r="C139">
+        <v>0.28966287000000002</v>
+      </c>
+      <c r="D139">
+        <v>0.13980922000000001</v>
+      </c>
+      <c r="E139">
+        <v>0.118068516</v>
+      </c>
+      <c r="F139">
+        <v>0.3400379</v>
+      </c>
+      <c r="G139">
+        <v>0.19971829999999999</v>
+      </c>
+      <c r="H139">
+        <v>0.37430200000000002</v>
+      </c>
+      <c r="I139">
+        <v>0.48509505000000003</v>
+      </c>
+      <c r="J139">
+        <v>0.49859524</v>
+      </c>
+      <c r="K139">
+        <v>0.60328066000000002</v>
+      </c>
+      <c r="L139">
+        <v>0.32242468000000002</v>
+      </c>
+      <c r="M139">
+        <v>0.21439394000000001</v>
+      </c>
+      <c r="N139">
+        <v>0.116417125</v>
+      </c>
+      <c r="O139">
+        <v>3.687998E-2</v>
+      </c>
+      <c r="P139">
+        <v>3.2510552999999998E-2</v>
+      </c>
+      <c r="Q139">
+        <v>0.36483840000000001</v>
+      </c>
+      <c r="R139">
+        <v>0.55064595000000005</v>
+      </c>
+      <c r="S139">
+        <v>0.55064595000000005</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>298000</v>
+      </c>
+      <c r="B140">
+        <v>0.16082223000000001</v>
+      </c>
+      <c r="C140">
+        <v>0.22521530000000001</v>
+      </c>
+      <c r="D140">
+        <v>0.16467324</v>
+      </c>
+      <c r="E140">
+        <v>2.0263628999999998E-2</v>
+      </c>
+      <c r="F140">
+        <v>0.29499236000000001</v>
+      </c>
+      <c r="G140">
+        <v>0.15814320000000001</v>
+      </c>
+      <c r="H140">
+        <v>0.34719090000000002</v>
+      </c>
+      <c r="I140">
+        <v>0.47956562000000003</v>
+      </c>
+      <c r="J140">
+        <v>0.49446099999999998</v>
+      </c>
+      <c r="K140">
+        <v>0.58362800000000004</v>
+      </c>
+      <c r="L140">
+        <v>0.46261249999999998</v>
+      </c>
+      <c r="M140">
+        <v>6.8285709999999999E-2</v>
+      </c>
+      <c r="N140">
+        <v>0.13538607999999999</v>
+      </c>
+      <c r="O140">
+        <v>3.8595530000000003E-2</v>
+      </c>
+      <c r="P140">
+        <v>2.9747450000000002E-2</v>
+      </c>
+      <c r="Q140">
+        <v>0.36148876000000002</v>
+      </c>
+      <c r="R140">
+        <v>0.56521845000000004</v>
+      </c>
+      <c r="S140">
+        <v>0.56521845000000004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>300000</v>
+      </c>
+      <c r="B141">
+        <v>0.16960976999999999</v>
+      </c>
+      <c r="C141">
+        <v>0.26289006999999998</v>
+      </c>
+      <c r="D141">
+        <v>0.13682233999999999</v>
+      </c>
+      <c r="E141">
+        <v>2.9592581E-2</v>
+      </c>
+      <c r="F141">
+        <v>0.32075369999999997</v>
+      </c>
+      <c r="G141">
+        <v>0.16385788000000001</v>
+      </c>
+      <c r="H141">
+        <v>0.33800235000000001</v>
+      </c>
+      <c r="I141">
+        <v>0.46443911999999998</v>
+      </c>
+      <c r="J141">
+        <v>0.46710435</v>
+      </c>
+      <c r="K141">
+        <v>0.56503093000000004</v>
+      </c>
+      <c r="L141">
+        <v>0.40773228</v>
+      </c>
+      <c r="M141">
+        <v>6.6923073999999999E-2</v>
+      </c>
+      <c r="N141">
+        <v>0.11973112</v>
+      </c>
+      <c r="O141">
+        <v>4.1481773999999999E-2</v>
+      </c>
+      <c r="P141">
+        <v>2.3183899000000001E-2</v>
+      </c>
+      <c r="Q141">
+        <v>0.35603141999999999</v>
+      </c>
+      <c r="R141">
+        <v>0.54042840000000003</v>
+      </c>
+      <c r="S141">
+        <v>0.54042840000000003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>302000</v>
+      </c>
+      <c r="B142">
+        <v>0.16745709</v>
+      </c>
+      <c r="C142">
+        <v>0.22154784</v>
+      </c>
+      <c r="D142">
+        <v>0.11264305600000001</v>
+      </c>
+      <c r="E142">
+        <v>5.3289940000000001E-2</v>
+      </c>
+      <c r="F142">
+        <v>0.3212835</v>
+      </c>
+      <c r="G142">
+        <v>0.17023021999999999</v>
+      </c>
+      <c r="H142">
+        <v>0.35341351999999998</v>
+      </c>
+      <c r="I142">
+        <v>0.51223755000000004</v>
+      </c>
+      <c r="J142">
+        <v>0.51469549999999997</v>
+      </c>
+      <c r="K142">
+        <v>0.53501810000000005</v>
+      </c>
+      <c r="L142">
+        <v>0.31314905999999998</v>
+      </c>
+      <c r="M142">
+        <v>0.36329365000000002</v>
+      </c>
+      <c r="N142">
+        <v>0.13989277</v>
+      </c>
+      <c r="O142">
+        <v>3.9605223000000002E-2</v>
+      </c>
+      <c r="P142">
+        <v>2.6422439999999998E-2</v>
+      </c>
+      <c r="Q142">
+        <v>0.35420477</v>
+      </c>
+      <c r="R142">
+        <v>0.56012505000000001</v>
+      </c>
+      <c r="S142">
+        <v>0.56012505000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>304000</v>
+      </c>
+      <c r="B143">
+        <v>0.16764393</v>
+      </c>
+      <c r="C143">
+        <v>0.19982594000000001</v>
+      </c>
+      <c r="D143">
+        <v>0.13641255999999999</v>
+      </c>
+      <c r="E143">
+        <v>6.3411265999999994E-2</v>
+      </c>
+      <c r="F143">
+        <v>0.32100780000000001</v>
+      </c>
+      <c r="G143">
+        <v>0.16927502999999999</v>
+      </c>
+      <c r="H143">
+        <v>0.39062091999999998</v>
+      </c>
+      <c r="I143">
+        <v>0.45604503000000002</v>
+      </c>
+      <c r="J143">
+        <v>0.47393786999999998</v>
+      </c>
+      <c r="K143">
+        <v>0.48442078</v>
+      </c>
+      <c r="L143">
+        <v>0.31942722000000001</v>
+      </c>
+      <c r="M143">
+        <v>0.18482143000000001</v>
+      </c>
+      <c r="N143">
+        <v>0.12656800000000001</v>
+      </c>
+      <c r="O143">
+        <v>4.0337310000000001E-2</v>
+      </c>
+      <c r="P143">
+        <v>2.699793E-2</v>
+      </c>
+      <c r="Q143">
+        <v>0.35863837999999998</v>
+      </c>
+      <c r="R143">
+        <v>0.55254155000000005</v>
+      </c>
+      <c r="S143">
+        <v>0.55254155000000005</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>306000</v>
+      </c>
+      <c r="B144">
+        <v>0.16878116000000001</v>
+      </c>
+      <c r="C144">
+        <v>0.20060337</v>
+      </c>
+      <c r="D144">
+        <v>0.12515886000000001</v>
+      </c>
+      <c r="E144">
+        <v>0.10201070499999999</v>
+      </c>
+      <c r="F144">
+        <v>0.31238204000000003</v>
+      </c>
+      <c r="G144">
+        <v>0.1651019</v>
+      </c>
+      <c r="H144">
+        <v>0.34402215000000003</v>
+      </c>
+      <c r="I144">
+        <v>0.43223413999999999</v>
+      </c>
+      <c r="J144">
+        <v>0.43796918000000001</v>
+      </c>
+      <c r="K144">
+        <v>0.52645299999999995</v>
+      </c>
+      <c r="L144">
+        <v>0.31418162999999999</v>
+      </c>
+      <c r="M144">
+        <v>0.22537878</v>
+      </c>
+      <c r="N144">
+        <v>0.10611808</v>
+      </c>
+      <c r="O144">
+        <v>4.0243109999999999E-2</v>
+      </c>
+      <c r="P144">
+        <v>2.6850339000000001E-2</v>
+      </c>
+      <c r="Q144">
+        <v>0.35883897999999997</v>
+      </c>
+      <c r="R144">
+        <v>0.53205069999999999</v>
+      </c>
+      <c r="S144">
+        <v>0.53205069999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>308000</v>
+      </c>
+      <c r="B145">
+        <v>0.16977526000000001</v>
+      </c>
+      <c r="C145">
+        <v>0.24189258999999999</v>
+      </c>
+      <c r="D145">
+        <v>0.13808276</v>
+      </c>
+      <c r="E145">
+        <v>5.157026E-2</v>
+      </c>
+      <c r="F145">
+        <v>0.31201833000000001</v>
+      </c>
+      <c r="G145">
+        <v>0.16392080000000001</v>
+      </c>
+      <c r="H145">
+        <v>0.35161187999999999</v>
+      </c>
+      <c r="I145">
+        <v>0.45860866</v>
+      </c>
+      <c r="J145">
+        <v>0.46747349999999999</v>
+      </c>
+      <c r="K145">
+        <v>0.53939009999999998</v>
+      </c>
+      <c r="L145">
+        <v>0.28856546</v>
+      </c>
+      <c r="M145">
+        <v>0.17777778</v>
+      </c>
+      <c r="N145">
+        <v>0.11316109000000001</v>
+      </c>
+      <c r="O145">
+        <v>3.6952153000000001E-2</v>
+      </c>
+      <c r="P145">
+        <v>2.6340479999999999E-2</v>
+      </c>
+      <c r="Q145">
+        <v>0.35819857999999999</v>
+      </c>
+      <c r="R145">
+        <v>0.53465229999999997</v>
+      </c>
+      <c r="S145">
+        <v>0.53465229999999997</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>310000</v>
+      </c>
+      <c r="B146">
+        <v>0.17365808999999999</v>
+      </c>
+      <c r="C146">
+        <v>0.22512214</v>
+      </c>
+      <c r="D146">
+        <v>0.10159184</v>
+      </c>
+      <c r="E146">
+        <v>0.35932517000000003</v>
+      </c>
+      <c r="F146">
+        <v>0.32239103000000002</v>
+      </c>
+      <c r="G146">
+        <v>0.15926039</v>
+      </c>
+      <c r="H146">
+        <v>0.36609444000000002</v>
+      </c>
+      <c r="I146">
+        <v>0.46430316999999999</v>
+      </c>
+      <c r="J146">
+        <v>0.48198416999999999</v>
+      </c>
+      <c r="K146">
+        <v>0.55773943999999998</v>
+      </c>
+      <c r="L146">
+        <v>0.37489625999999998</v>
+      </c>
+      <c r="M146">
+        <v>0.39705879999999999</v>
+      </c>
+      <c r="N146">
+        <v>0.11273084999999999</v>
+      </c>
+      <c r="O146">
+        <v>3.6915959999999998E-2</v>
+      </c>
+      <c r="P146">
+        <v>2.2066309999999999E-2</v>
+      </c>
+      <c r="Q146">
+        <v>0.35827734999999999</v>
+      </c>
+      <c r="R146">
+        <v>0.52999026000000005</v>
+      </c>
+      <c r="S146">
+        <v>0.52999026000000005</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>312000</v>
+      </c>
+      <c r="B147">
+        <v>0.14507565</v>
+      </c>
+      <c r="C147">
+        <v>0.20578092000000001</v>
+      </c>
+      <c r="D147">
+        <v>9.8884605E-2</v>
+      </c>
+      <c r="E147">
+        <v>2.616752E-2</v>
+      </c>
+      <c r="F147">
+        <v>0.27642494000000001</v>
+      </c>
+      <c r="G147">
+        <v>0.13832792999999999</v>
+      </c>
+      <c r="H147">
+        <v>0.32468972000000001</v>
+      </c>
+      <c r="I147">
+        <v>0.48007359999999999</v>
+      </c>
+      <c r="J147">
+        <v>0.48390967000000001</v>
+      </c>
+      <c r="K147">
+        <v>0.58385629999999999</v>
+      </c>
+      <c r="L147">
+        <v>0.35397752999999998</v>
+      </c>
+      <c r="M147">
+        <v>9.7089945999999996E-2</v>
+      </c>
+      <c r="N147">
+        <v>0.12944430000000001</v>
+      </c>
+      <c r="O147">
+        <v>3.9369321999999998E-2</v>
+      </c>
+      <c r="P147">
+        <v>2.1887166E-2</v>
+      </c>
+      <c r="Q147">
+        <v>0.35276364999999998</v>
+      </c>
+      <c r="R147">
+        <v>0.54346380000000005</v>
+      </c>
+      <c r="S147">
+        <v>0.54346380000000005</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>314000</v>
+      </c>
+      <c r="B148">
+        <v>0.16061063</v>
+      </c>
+      <c r="C148">
+        <v>0.23901138</v>
+      </c>
+      <c r="D148">
+        <v>0.1153661</v>
+      </c>
+      <c r="E148">
+        <v>6.0117528000000003E-2</v>
+      </c>
+      <c r="F148">
+        <v>0.31019627999999999</v>
+      </c>
+      <c r="G148">
+        <v>0.14894093999999999</v>
+      </c>
+      <c r="H148">
+        <v>0.34017733</v>
+      </c>
+      <c r="I148">
+        <v>0.45185330000000001</v>
+      </c>
+      <c r="J148">
+        <v>0.46825840000000002</v>
+      </c>
+      <c r="K148">
+        <v>0.58145480000000005</v>
+      </c>
+      <c r="L148">
+        <v>0.22416712</v>
+      </c>
+      <c r="M148">
+        <v>0.17354496999999999</v>
+      </c>
+      <c r="N148">
+        <v>0.11654977499999999</v>
+      </c>
+      <c r="O148">
+        <v>4.0571139999999999E-2</v>
+      </c>
+      <c r="P148">
+        <v>3.3726890000000002E-2</v>
+      </c>
+      <c r="Q148">
+        <v>0.36720439999999999</v>
+      </c>
+      <c r="R148">
+        <v>0.55805249999999995</v>
+      </c>
+      <c r="S148">
+        <v>0.55805249999999995</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>316000</v>
+      </c>
+      <c r="B149">
+        <v>0.16294332</v>
+      </c>
+      <c r="C149">
+        <v>0.21473361999999999</v>
+      </c>
+      <c r="D149">
+        <v>9.8287940000000004E-2</v>
+      </c>
+      <c r="E149">
+        <v>2.3470537999999999E-2</v>
+      </c>
+      <c r="F149">
+        <v>0.30591489999999999</v>
+      </c>
+      <c r="G149">
+        <v>0.15753239999999999</v>
+      </c>
+      <c r="H149">
+        <v>0.35760540000000002</v>
+      </c>
+      <c r="I149">
+        <v>0.452984</v>
+      </c>
+      <c r="J149">
+        <v>0.465729</v>
+      </c>
+      <c r="K149">
+        <v>0.5112006</v>
+      </c>
+      <c r="L149">
+        <v>0.31623992000000001</v>
+      </c>
+      <c r="M149">
+        <v>7.1582179999999995E-2</v>
+      </c>
+      <c r="N149">
+        <v>0.12976584999999999</v>
+      </c>
+      <c r="O149">
+        <v>4.0302400000000002E-2</v>
+      </c>
+      <c r="P149">
+        <v>3.3430148E-2</v>
+      </c>
+      <c r="Q149">
+        <v>0.36786219999999997</v>
+      </c>
+      <c r="R149">
+        <v>0.57136076999999996</v>
+      </c>
+      <c r="S149">
+        <v>0.57136076999999996</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>318000</v>
+      </c>
+      <c r="B150">
+        <v>0.15916267000000001</v>
+      </c>
+      <c r="C150">
+        <v>0.21490500000000001</v>
+      </c>
+      <c r="D150">
+        <v>0.11598219999999999</v>
+      </c>
+      <c r="E150">
+        <v>7.3529819999999996E-2</v>
+      </c>
+      <c r="F150">
+        <v>0.29991331999999998</v>
+      </c>
+      <c r="G150">
+        <v>0.15171106000000001</v>
+      </c>
+      <c r="H150">
+        <v>0.35880689999999998</v>
+      </c>
+      <c r="I150">
+        <v>0.45762560000000002</v>
+      </c>
+      <c r="J150">
+        <v>0.47360548000000002</v>
+      </c>
+      <c r="K150">
+        <v>0.50338680000000002</v>
+      </c>
+      <c r="L150">
+        <v>0.30151102000000002</v>
+      </c>
+      <c r="M150">
+        <v>0.1481982</v>
+      </c>
+      <c r="N150">
+        <v>0.10935019</v>
+      </c>
+      <c r="O150">
+        <v>3.5981699999999998E-2</v>
+      </c>
+      <c r="P150">
+        <v>2.7524528999999999E-2</v>
+      </c>
+      <c r="Q150">
+        <v>0.35609869999999999</v>
+      </c>
+      <c r="R150">
+        <v>0.52895486000000003</v>
+      </c>
+      <c r="S150">
+        <v>0.52895486000000003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>320000</v>
+      </c>
+      <c r="B151">
+        <v>0.1681327</v>
+      </c>
+      <c r="C151">
+        <v>0.25584026999999998</v>
+      </c>
+      <c r="D151">
+        <v>0.13096479</v>
+      </c>
+      <c r="E151">
+        <v>7.6251159999999998E-2</v>
+      </c>
+      <c r="F151">
+        <v>0.31791374</v>
+      </c>
+      <c r="G151">
+        <v>0.15890541999999999</v>
+      </c>
+      <c r="H151">
+        <v>0.42440601999999999</v>
+      </c>
+      <c r="I151">
+        <v>0.50058024999999995</v>
+      </c>
+      <c r="J151">
+        <v>0.50991439999999999</v>
+      </c>
+      <c r="K151">
+        <v>0.59174450000000001</v>
+      </c>
+      <c r="L151">
+        <v>0.31062677999999999</v>
+      </c>
+      <c r="M151">
+        <v>0.11431624</v>
+      </c>
+      <c r="N151">
+        <v>0.11604707</v>
+      </c>
+      <c r="O151">
+        <v>3.9045740000000002E-2</v>
+      </c>
+      <c r="P151">
+        <v>2.6976936E-2</v>
+      </c>
+      <c r="Q151">
+        <v>0.35994092</v>
+      </c>
+      <c r="R151">
+        <v>0.54201120000000003</v>
+      </c>
+      <c r="S151">
+        <v>0.54201120000000003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>324000</v>
+      </c>
+      <c r="B152">
+        <v>0.14979302999999999</v>
+      </c>
+      <c r="C152">
+        <v>0.18369594</v>
+      </c>
+      <c r="D152">
+        <v>0.21725496999999999</v>
+      </c>
+      <c r="E152">
+        <v>1.9939261999999999E-2</v>
+      </c>
+      <c r="F152">
+        <v>0.30410432999999998</v>
+      </c>
+      <c r="G152">
+        <v>0.1363993</v>
+      </c>
+      <c r="H152">
+        <v>0.3622031</v>
+      </c>
+      <c r="I152">
+        <v>0.44280713999999999</v>
+      </c>
+      <c r="J152">
+        <v>0.45881778000000001</v>
+      </c>
+      <c r="K152">
+        <v>0.47784778</v>
+      </c>
+      <c r="L152">
+        <v>0.34310279999999999</v>
+      </c>
+      <c r="M152">
+        <v>4.2222219999999998E-2</v>
+      </c>
+      <c r="N152">
+        <v>0.13251007000000001</v>
+      </c>
+      <c r="O152">
+        <v>4.2757009999999998E-2</v>
+      </c>
+      <c r="P152">
+        <v>2.9367966999999998E-2</v>
+      </c>
+      <c r="Q152">
+        <v>0.36324372999999999</v>
+      </c>
+      <c r="R152">
+        <v>0.56787825000000003</v>
+      </c>
+      <c r="S152">
+        <v>0.56787825000000003</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>326000</v>
+      </c>
+      <c r="B153">
+        <v>0.15488313000000001</v>
+      </c>
+      <c r="C153">
+        <v>0.20507427</v>
+      </c>
+      <c r="D153">
+        <v>0.11646734</v>
+      </c>
+      <c r="E153">
+        <v>6.9652389999999998E-3</v>
+      </c>
+      <c r="F153">
+        <v>0.2975817</v>
+      </c>
+      <c r="G153">
+        <v>0.14968607</v>
+      </c>
+      <c r="H153">
+        <v>0.34684035000000002</v>
+      </c>
+      <c r="I153">
+        <v>0.43154606000000001</v>
+      </c>
+      <c r="J153">
+        <v>0.45384492999999998</v>
+      </c>
+      <c r="K153">
+        <v>0.49753251999999998</v>
+      </c>
+      <c r="L153">
+        <v>0.26773344999999998</v>
+      </c>
+      <c r="M153">
+        <v>5.7936509999999997E-2</v>
+      </c>
+      <c r="N153">
+        <v>0.124988824</v>
+      </c>
+      <c r="O153">
+        <v>3.9882361999999998E-2</v>
+      </c>
+      <c r="P153">
+        <v>2.2256921999999998E-2</v>
+      </c>
+      <c r="Q153">
+        <v>0.3565237</v>
+      </c>
+      <c r="R153">
+        <v>0.54365193999999994</v>
+      </c>
+      <c r="S153">
+        <v>0.54365193999999994</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>328000</v>
+      </c>
+      <c r="B154">
+        <v>0.16004667</v>
+      </c>
+      <c r="C154">
+        <v>0.22678602</v>
+      </c>
+      <c r="D154">
+        <v>0.13486259</v>
+      </c>
+      <c r="E154">
+        <v>5.5770513000000001E-2</v>
+      </c>
+      <c r="F154">
+        <v>0.30972379999999999</v>
+      </c>
+      <c r="G154">
+        <v>0.15163067999999999</v>
+      </c>
+      <c r="H154">
+        <v>0.38153350000000003</v>
+      </c>
+      <c r="I154">
+        <v>0.49516500000000002</v>
+      </c>
+      <c r="J154">
+        <v>0.51017606000000004</v>
+      </c>
+      <c r="K154">
+        <v>0.57898170000000004</v>
+      </c>
+      <c r="L154">
+        <v>0.31471326999999999</v>
+      </c>
+      <c r="M154">
+        <v>9.7947456000000002E-2</v>
+      </c>
+      <c r="N154">
+        <v>0.115998745</v>
+      </c>
+      <c r="O154">
+        <v>3.9386145999999997E-2</v>
+      </c>
+      <c r="P154">
+        <v>2.2985399E-2</v>
+      </c>
+      <c r="Q154">
+        <v>0.35850152000000002</v>
+      </c>
+      <c r="R154">
+        <v>0.53687196999999998</v>
+      </c>
+      <c r="S154">
+        <v>0.53687196999999998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>330000</v>
+      </c>
+      <c r="B155">
+        <v>0.1762579</v>
+      </c>
+      <c r="C155">
+        <v>0.23449608999999999</v>
+      </c>
+      <c r="D155">
+        <v>0.16420709999999999</v>
+      </c>
+      <c r="E155">
+        <v>7.5655550000000002E-2</v>
+      </c>
+      <c r="F155">
+        <v>0.33446616000000001</v>
+      </c>
+      <c r="G155">
+        <v>0.1762087</v>
+      </c>
+      <c r="H155">
+        <v>0.34904167000000003</v>
+      </c>
+      <c r="I155">
+        <v>0.44549741999999998</v>
+      </c>
+      <c r="J155">
+        <v>0.45184442000000002</v>
+      </c>
+      <c r="K155">
+        <v>0.55522740000000004</v>
+      </c>
+      <c r="L155">
+        <v>0.34034267000000001</v>
+      </c>
+      <c r="M155">
+        <v>0.13548388</v>
+      </c>
+      <c r="N155">
+        <v>0.11045244</v>
+      </c>
+      <c r="O155">
+        <v>3.6456219999999998E-2</v>
+      </c>
+      <c r="P155">
+        <v>2.5920011E-2</v>
+      </c>
+      <c r="Q155">
+        <v>0.35816874999999998</v>
+      </c>
+      <c r="R155">
+        <v>0.5309971</v>
+      </c>
+      <c r="S155">
+        <v>0.5309971</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>332000</v>
+      </c>
+      <c r="B156">
+        <v>0.17360302999999999</v>
+      </c>
+      <c r="C156">
+        <v>0.21551899999999999</v>
+      </c>
+      <c r="D156">
+        <v>0.14335553000000001</v>
+      </c>
+      <c r="E156">
+        <v>5.435736E-2</v>
+      </c>
+      <c r="F156">
+        <v>0.29729724000000002</v>
+      </c>
+      <c r="G156">
+        <v>0.18269615</v>
+      </c>
+      <c r="H156">
+        <v>0.40774584000000003</v>
+      </c>
+      <c r="I156">
+        <v>0.49745794999999998</v>
+      </c>
+      <c r="J156">
+        <v>0.50162183999999999</v>
+      </c>
+      <c r="K156">
+        <v>0.53778594999999996</v>
+      </c>
+      <c r="L156">
+        <v>0.37688896</v>
+      </c>
+      <c r="M156">
+        <v>0.10595238</v>
+      </c>
+      <c r="N156">
+        <v>0.12307975</v>
+      </c>
+      <c r="O156">
+        <v>3.6912590000000002E-2</v>
+      </c>
+      <c r="P156">
+        <v>2.5720634999999999E-2</v>
+      </c>
+      <c r="Q156">
+        <v>0.36036237999999998</v>
+      </c>
+      <c r="R156">
+        <v>0.54607534000000002</v>
+      </c>
+      <c r="S156">
+        <v>0.54607534000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>334000</v>
+      </c>
+      <c r="B157">
+        <v>0.16927428999999999</v>
+      </c>
+      <c r="C157">
+        <v>0.23609044000000001</v>
+      </c>
+      <c r="D157">
+        <v>0.15011382000000001</v>
+      </c>
+      <c r="E157">
+        <v>1.7883664000000001E-2</v>
+      </c>
+      <c r="F157">
+        <v>0.29998645000000002</v>
+      </c>
+      <c r="G157">
+        <v>0.16805126000000001</v>
+      </c>
+      <c r="H157">
+        <v>0.36697802000000002</v>
+      </c>
+      <c r="I157">
+        <v>0.46421465000000001</v>
+      </c>
+      <c r="J157">
+        <v>0.47204344999999998</v>
+      </c>
+      <c r="K157">
+        <v>0.57673870000000005</v>
+      </c>
+      <c r="L157">
+        <v>0.38839030000000002</v>
+      </c>
+      <c r="M157">
+        <v>5.4166667000000002E-2</v>
+      </c>
+      <c r="N157">
+        <v>0.1192257</v>
+      </c>
+      <c r="O157">
+        <v>3.7497695999999997E-2</v>
+      </c>
+      <c r="P157">
+        <v>2.9902854999999999E-2</v>
+      </c>
+      <c r="Q157">
+        <v>0.35898656000000001</v>
+      </c>
+      <c r="R157">
+        <v>0.54561263000000004</v>
+      </c>
+      <c r="S157">
+        <v>0.54561263000000004</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>336000</v>
+      </c>
+      <c r="B158">
+        <v>0.16615232999999999</v>
+      </c>
+      <c r="C158">
+        <v>0.25999546000000001</v>
+      </c>
+      <c r="D158">
+        <v>0.14432262000000001</v>
+      </c>
+      <c r="E158">
+        <v>4.1898299999999999E-2</v>
+      </c>
+      <c r="F158">
+        <v>0.30776426000000001</v>
+      </c>
+      <c r="G158">
+        <v>0.16148344000000001</v>
+      </c>
+      <c r="H158">
+        <v>0.42937067000000001</v>
+      </c>
+      <c r="I158">
+        <v>0.50618220000000003</v>
+      </c>
+      <c r="J158">
+        <v>0.51169366000000005</v>
+      </c>
+      <c r="K158">
+        <v>0.57902396</v>
+      </c>
+      <c r="L158">
+        <v>0.41148168000000002</v>
+      </c>
+      <c r="M158">
+        <v>0.11570946</v>
+      </c>
+      <c r="N158">
+        <v>0.11961236</v>
+      </c>
+      <c r="O158">
+        <v>3.8484734E-2</v>
+      </c>
+      <c r="P158">
+        <v>2.5453124000000001E-2</v>
+      </c>
+      <c r="Q158">
+        <v>0.35655682999999999</v>
+      </c>
+      <c r="R158">
+        <v>0.54010712999999999</v>
+      </c>
+      <c r="S158">
+        <v>0.54010712999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>338000</v>
+      </c>
+      <c r="B159">
+        <v>0.17941800999999999</v>
+      </c>
+      <c r="C159">
+        <v>0.26375470000000001</v>
+      </c>
+      <c r="D159">
+        <v>0.32502819999999999</v>
+      </c>
+      <c r="E159">
+        <v>0.10536231</v>
+      </c>
+      <c r="F159">
+        <v>0.3300709</v>
+      </c>
+      <c r="G159">
+        <v>0.17652008</v>
+      </c>
+      <c r="H159">
+        <v>0.39174880000000001</v>
+      </c>
+      <c r="I159">
+        <v>0.51255919999999999</v>
+      </c>
+      <c r="J159">
+        <v>0.51867459999999999</v>
+      </c>
+      <c r="K159">
+        <v>0.59594135999999998</v>
+      </c>
+      <c r="L159">
+        <v>0.49136284000000002</v>
+      </c>
+      <c r="M159">
+        <v>0.15645160999999999</v>
+      </c>
+      <c r="N159">
+        <v>0.118604995</v>
+      </c>
+      <c r="O159">
+        <v>3.5883103E-2</v>
+      </c>
+      <c r="P159">
+        <v>1.9089890000000002E-2</v>
+      </c>
+      <c r="Q159">
+        <v>0.35761767999999999</v>
+      </c>
+      <c r="R159">
+        <v>0.53119570000000005</v>
+      </c>
+      <c r="S159">
+        <v>0.53119570000000005</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>340000</v>
+      </c>
+      <c r="B160">
+        <v>0.15511759</v>
+      </c>
+      <c r="C160">
+        <v>0.22431628000000001</v>
+      </c>
+      <c r="D160">
+        <v>0.1138139</v>
+      </c>
+      <c r="E160">
+        <v>0.11354955999999999</v>
+      </c>
+      <c r="F160">
+        <v>0.29191154000000002</v>
+      </c>
+      <c r="G160">
+        <v>0.14628424000000001</v>
+      </c>
+      <c r="H160">
+        <v>0.30296060000000002</v>
+      </c>
+      <c r="I160">
+        <v>0.47070416999999998</v>
+      </c>
+      <c r="J160">
+        <v>0.47492820000000002</v>
+      </c>
+      <c r="K160">
+        <v>0.55932426000000002</v>
+      </c>
+      <c r="L160">
+        <v>0.27908369999999999</v>
+      </c>
+      <c r="M160">
+        <v>0.24940476</v>
+      </c>
+      <c r="N160">
+        <v>0.13480306</v>
+      </c>
+      <c r="O160">
+        <v>3.7738618000000002E-2</v>
+      </c>
+      <c r="P160">
+        <v>2.9494132999999999E-2</v>
+      </c>
+      <c r="Q160">
+        <v>0.36394559999999998</v>
+      </c>
+      <c r="R160">
+        <v>0.56598150000000003</v>
+      </c>
+      <c r="S160">
+        <v>0.56598150000000003</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>342000</v>
+      </c>
+      <c r="B161">
+        <v>0.1659466</v>
+      </c>
+      <c r="C161">
+        <v>0.27698207000000002</v>
+      </c>
+      <c r="D161">
+        <v>0.10191983</v>
+      </c>
+      <c r="E161">
+        <v>6.1768897000000003E-2</v>
+      </c>
+      <c r="F161">
+        <v>0.32171509999999998</v>
+      </c>
+      <c r="G161">
+        <v>0.16310938999999999</v>
+      </c>
+      <c r="H161">
+        <v>0.36541063000000001</v>
+      </c>
+      <c r="I161">
+        <v>0.48335250000000002</v>
+      </c>
+      <c r="J161">
+        <v>0.49113089999999998</v>
+      </c>
+      <c r="K161">
+        <v>0.59379904999999999</v>
+      </c>
+      <c r="L161">
+        <v>0.2881783</v>
+      </c>
+      <c r="M161">
+        <v>0.10333333</v>
+      </c>
+      <c r="N161">
+        <v>0.11786624</v>
+      </c>
+      <c r="O161">
+        <v>3.8036349999999997E-2</v>
+      </c>
+      <c r="P161">
+        <v>2.0653805000000001E-2</v>
+      </c>
+      <c r="Q161">
+        <v>0.35819151999999999</v>
+      </c>
+      <c r="R161">
+        <v>0.53474809999999995</v>
+      </c>
+      <c r="S161">
+        <v>0.53474809999999995</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>344000</v>
+      </c>
+      <c r="B162">
+        <v>0.15791295</v>
+      </c>
+      <c r="C162">
+        <v>0.24579419999999999</v>
+      </c>
+      <c r="D162">
+        <v>9.9531255999999999E-2</v>
+      </c>
+      <c r="E162">
+        <v>2.0233456E-2</v>
+      </c>
+      <c r="F162">
+        <v>0.2943365</v>
+      </c>
+      <c r="G162">
+        <v>0.1515049</v>
+      </c>
+      <c r="H162">
+        <v>0.39667118000000001</v>
+      </c>
+      <c r="I162">
+        <v>0.47768092000000001</v>
+      </c>
+      <c r="J162">
+        <v>0.48378073999999999</v>
+      </c>
+      <c r="K162">
+        <v>0.55384370000000005</v>
+      </c>
+      <c r="L162">
+        <v>0.34713694</v>
+      </c>
+      <c r="M162">
+        <v>0.10098814</v>
+      </c>
+      <c r="N162">
+        <v>0.11091196</v>
+      </c>
+      <c r="O162">
+        <v>3.7151080000000003E-2</v>
+      </c>
+      <c r="P162">
+        <v>3.0367208999999999E-2</v>
+      </c>
+      <c r="Q162">
+        <v>0.36001035999999997</v>
+      </c>
+      <c r="R162">
+        <v>0.53844020000000004</v>
+      </c>
+      <c r="S162">
+        <v>0.53844020000000004</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>346000</v>
+      </c>
+      <c r="B163">
+        <v>0.15669669</v>
+      </c>
+      <c r="C163">
+        <v>0.20289029</v>
+      </c>
+      <c r="D163">
+        <v>8.9192779999999999E-2</v>
+      </c>
+      <c r="E163">
+        <v>0.15603094000000001</v>
+      </c>
+      <c r="F163">
+        <v>0.30219203</v>
+      </c>
+      <c r="G163">
+        <v>0.1487387</v>
+      </c>
+      <c r="H163">
+        <v>0.33630886999999998</v>
+      </c>
+      <c r="I163">
+        <v>0.42571639999999999</v>
+      </c>
+      <c r="J163">
+        <v>0.43102288</v>
+      </c>
+      <c r="K163">
+        <v>0.43253246000000001</v>
+      </c>
+      <c r="L163">
+        <v>0.30018984999999998</v>
+      </c>
+      <c r="M163">
+        <v>0.188</v>
+      </c>
+      <c r="N163">
+        <v>0.12550380999999999</v>
+      </c>
+      <c r="O163">
+        <v>3.8163601999999998E-2</v>
+      </c>
+      <c r="P163">
+        <v>2.4033830999999999E-2</v>
+      </c>
+      <c r="Q163">
+        <v>0.36366525</v>
+      </c>
+      <c r="R163">
+        <v>0.55136649999999998</v>
+      </c>
+      <c r="S163">
+        <v>0.55136649999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>348000</v>
+      </c>
+      <c r="B164">
+        <v>0.16420145</v>
+      </c>
+      <c r="C164">
+        <v>0.26400204999999999</v>
+      </c>
+      <c r="D164">
+        <v>9.7554415000000005E-2</v>
+      </c>
+      <c r="E164">
+        <v>2.3037439999999999E-2</v>
+      </c>
+      <c r="F164">
+        <v>0.30880289999999999</v>
+      </c>
+      <c r="G164">
+        <v>0.16238807</v>
+      </c>
+      <c r="H164">
+        <v>0.37140050000000002</v>
+      </c>
+      <c r="I164">
+        <v>0.43899887999999998</v>
+      </c>
+      <c r="J164">
+        <v>0.44066559999999999</v>
+      </c>
+      <c r="K164">
+        <v>0.57967539999999995</v>
+      </c>
+      <c r="L164">
+        <v>0.22292048</v>
+      </c>
+      <c r="M164">
+        <v>7.3291930000000005E-2</v>
+      </c>
+      <c r="N164">
+        <v>0.116312675</v>
+      </c>
+      <c r="O164">
+        <v>3.9929073000000002E-2</v>
+      </c>
+      <c r="P164">
+        <v>3.3252302999999997E-2</v>
+      </c>
+      <c r="Q164">
+        <v>0.36305674999999998</v>
+      </c>
+      <c r="R164">
+        <v>0.55255100000000001</v>
+      </c>
+      <c r="S164">
+        <v>0.55255100000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>350000</v>
+      </c>
+      <c r="B165">
+        <v>0.16904674</v>
+      </c>
+      <c r="C165">
+        <v>0.26792510000000003</v>
+      </c>
+      <c r="D165">
+        <v>0.15201502</v>
+      </c>
+      <c r="E165">
+        <v>9.3005290000000004E-2</v>
+      </c>
+      <c r="F165">
+        <v>0.31195608000000002</v>
+      </c>
+      <c r="G165">
+        <v>0.16024606</v>
+      </c>
+      <c r="H165">
+        <v>0.39971632000000001</v>
+      </c>
+      <c r="I165">
+        <v>0.50587183000000002</v>
+      </c>
+      <c r="J165">
+        <v>0.50942160000000003</v>
+      </c>
+      <c r="K165">
+        <v>0.58568509999999996</v>
+      </c>
+      <c r="L165">
+        <v>0.29039680000000001</v>
+      </c>
+      <c r="M165">
+        <v>0.17314284999999999</v>
+      </c>
+      <c r="N165">
+        <v>0.12472289</v>
+      </c>
+      <c r="O165">
+        <v>3.7907681999999998E-2</v>
+      </c>
+      <c r="P165">
+        <v>1.8519653000000001E-2</v>
+      </c>
+      <c r="Q165">
+        <v>0.35726279999999999</v>
+      </c>
+      <c r="R165">
+        <v>0.53841309999999998</v>
+      </c>
+      <c r="S165">
+        <v>0.53841309999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>352000</v>
+      </c>
+      <c r="B166">
+        <v>0.14781870999999999</v>
+      </c>
+      <c r="C166">
+        <v>0.22520493</v>
+      </c>
+      <c r="D166">
+        <v>0.15116493</v>
+      </c>
+      <c r="E166">
+        <v>7.9645670000000002E-2</v>
+      </c>
+      <c r="F166">
+        <v>0.28526109999999999</v>
+      </c>
+      <c r="G166">
+        <v>0.13747740999999999</v>
+      </c>
+      <c r="H166">
+        <v>0.35648059999999998</v>
+      </c>
+      <c r="I166">
+        <v>0.48389601999999998</v>
+      </c>
+      <c r="J166">
+        <v>0.49122977000000001</v>
+      </c>
+      <c r="K166">
+        <v>0.56791769999999997</v>
+      </c>
+      <c r="L166">
+        <v>0.30498275000000002</v>
+      </c>
+      <c r="M166">
+        <v>0.15440613</v>
+      </c>
+      <c r="N166">
+        <v>0.12646167999999999</v>
+      </c>
+      <c r="O166">
+        <v>3.8417857E-2</v>
+      </c>
+      <c r="P166">
+        <v>2.8091718000000002E-2</v>
+      </c>
+      <c r="Q166">
+        <v>0.36132035000000001</v>
+      </c>
+      <c r="R166">
+        <v>0.55429139999999999</v>
+      </c>
+      <c r="S166">
+        <v>0.55429139999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>354000</v>
+      </c>
+      <c r="B167">
+        <v>0.17157172000000001</v>
+      </c>
+      <c r="C167">
+        <v>0.25691019999999998</v>
+      </c>
+      <c r="D167">
+        <v>0.19635743999999999</v>
+      </c>
+      <c r="E167">
+        <v>9.7029880000000003E-4</v>
+      </c>
+      <c r="F167">
+        <v>0.31771326</v>
+      </c>
+      <c r="G167">
+        <v>0.16393824000000001</v>
+      </c>
+      <c r="H167">
+        <v>0.40955594000000001</v>
+      </c>
+      <c r="I167">
+        <v>0.49666673</v>
+      </c>
+      <c r="J167">
+        <v>0.49825835000000002</v>
+      </c>
+      <c r="K167">
+        <v>0.57669926000000005</v>
+      </c>
+      <c r="L167">
+        <v>0.39718520000000002</v>
+      </c>
+      <c r="M167">
+        <v>2.9382716999999999E-2</v>
+      </c>
+      <c r="N167">
+        <v>0.11136904</v>
+      </c>
+      <c r="O167">
+        <v>3.6998602999999998E-2</v>
+      </c>
+      <c r="P167">
+        <v>1.8430166000000001E-2</v>
+      </c>
+      <c r="Q167">
+        <v>0.35523948</v>
+      </c>
+      <c r="R167">
+        <v>0.52203756999999995</v>
+      </c>
+      <c r="S167">
+        <v>0.52203756999999995</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>356000</v>
+      </c>
+      <c r="B168">
+        <v>0.17239684</v>
+      </c>
+      <c r="C168">
+        <v>0.26137945000000001</v>
+      </c>
+      <c r="D168">
+        <v>9.7051449999999997E-2</v>
+      </c>
+      <c r="E168">
+        <v>6.0519744E-2</v>
+      </c>
+      <c r="F168">
+        <v>0.33115401999999999</v>
+      </c>
+      <c r="G168">
+        <v>0.17205725999999999</v>
+      </c>
+      <c r="H168">
+        <v>0.31555462000000001</v>
+      </c>
+      <c r="I168">
+        <v>0.48830180000000001</v>
+      </c>
+      <c r="J168">
+        <v>0.49242014000000001</v>
+      </c>
+      <c r="K168">
+        <v>0.60900969999999999</v>
+      </c>
+      <c r="L168">
+        <v>0.33140370000000002</v>
+      </c>
+      <c r="M168">
+        <v>0.11868279399999999</v>
+      </c>
+      <c r="N168">
+        <v>0.13023159000000001</v>
+      </c>
+      <c r="O168">
+        <v>3.7700504000000003E-2</v>
+      </c>
+      <c r="P168">
+        <v>2.8689945000000001E-2</v>
+      </c>
+      <c r="Q168">
+        <v>0.35719982</v>
+      </c>
+      <c r="R168">
+        <v>0.55382160000000002</v>
+      </c>
+      <c r="S168">
+        <v>0.55382160000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>358000</v>
+      </c>
+      <c r="B169">
+        <v>0.15162012</v>
+      </c>
+      <c r="C169">
+        <v>0.25472825999999998</v>
+      </c>
+      <c r="D169">
+        <v>0.11298208</v>
+      </c>
+      <c r="E169">
+        <v>7.8506893999999994E-2</v>
+      </c>
+      <c r="F169">
+        <v>0.28718472</v>
+      </c>
+      <c r="G169">
+        <v>0.1349128</v>
+      </c>
+      <c r="H169">
+        <v>0.40791595000000003</v>
+      </c>
+      <c r="I169">
+        <v>0.51637239999999995</v>
+      </c>
+      <c r="J169">
+        <v>0.52548813999999999</v>
+      </c>
+      <c r="K169">
+        <v>0.60226274000000002</v>
+      </c>
+      <c r="L169">
+        <v>0.34160217999999998</v>
+      </c>
+      <c r="M169">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="N169">
+        <v>0.11871072000000001</v>
+      </c>
+      <c r="O169">
+        <v>4.0769926999999997E-2</v>
+      </c>
+      <c r="P169">
+        <v>2.7334653E-2</v>
+      </c>
+      <c r="Q169">
+        <v>0.35908236999999998</v>
+      </c>
+      <c r="R169">
+        <v>0.54589750000000004</v>
+      </c>
+      <c r="S169">
+        <v>0.54589750000000004</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>360000</v>
+      </c>
+      <c r="B170">
+        <v>0.16044916000000001</v>
+      </c>
+      <c r="C170">
+        <v>0.19332361000000001</v>
+      </c>
+      <c r="D170">
+        <v>0.16371182000000001</v>
+      </c>
+      <c r="E170">
+        <v>0.10016000999999999</v>
+      </c>
+      <c r="F170">
+        <v>0.31971985000000003</v>
+      </c>
+      <c r="G170">
+        <v>0.14818761999999999</v>
+      </c>
+      <c r="H170">
+        <v>0.34387024999999999</v>
+      </c>
+      <c r="I170">
+        <v>0.43669380000000002</v>
+      </c>
+      <c r="J170">
+        <v>0.43888509999999997</v>
+      </c>
+      <c r="K170">
+        <v>0.43997425000000001</v>
+      </c>
+      <c r="L170">
+        <v>0.33908987000000002</v>
+      </c>
+      <c r="M170">
+        <v>0.10843214399999999</v>
+      </c>
+      <c r="N170">
+        <v>0.12035687</v>
+      </c>
+      <c r="O170">
+        <v>4.0262147999999998E-2</v>
+      </c>
+      <c r="P170">
+        <v>2.5507684999999999E-2</v>
+      </c>
+      <c r="Q170">
+        <v>0.35598147000000002</v>
+      </c>
+      <c r="R170">
+        <v>0.54210780000000003</v>
+      </c>
+      <c r="S170">
+        <v>0.54210780000000003</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>362000</v>
+      </c>
+      <c r="B171">
+        <v>0.16783766</v>
+      </c>
+      <c r="C171">
+        <v>0.27149754999999998</v>
+      </c>
+      <c r="D171">
+        <v>0.11365022499999999</v>
+      </c>
+      <c r="E171">
+        <v>5.145251E-2</v>
+      </c>
+      <c r="F171">
+        <v>0.31558671999999999</v>
+      </c>
+      <c r="G171">
+        <v>0.16704956000000001</v>
+      </c>
+      <c r="H171">
+        <v>0.37869715999999998</v>
+      </c>
+      <c r="I171">
+        <v>0.50939846</v>
+      </c>
+      <c r="J171">
+        <v>0.51781049999999995</v>
+      </c>
+      <c r="K171">
+        <v>0.59573894999999999</v>
+      </c>
+      <c r="L171">
+        <v>0.42073369999999999</v>
+      </c>
+      <c r="M171">
+        <v>0.32432949999999999</v>
+      </c>
+      <c r="N171">
+        <v>0.123284794</v>
+      </c>
+      <c r="O171">
+        <v>3.8744405000000003E-2</v>
+      </c>
+      <c r="P171">
+        <v>2.728734E-2</v>
+      </c>
+      <c r="Q171">
+        <v>0.35836414</v>
+      </c>
+      <c r="R171">
+        <v>0.54768070000000002</v>
+      </c>
+      <c r="S171">
+        <v>0.54768070000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>364000</v>
+      </c>
+      <c r="B172">
+        <v>0.15915850000000001</v>
+      </c>
+      <c r="C172">
+        <v>0.21548453000000001</v>
+      </c>
+      <c r="D172">
+        <v>0.24839765999999999</v>
+      </c>
+      <c r="E172">
+        <v>7.331696E-2</v>
+      </c>
+      <c r="F172">
+        <v>0.30627197</v>
+      </c>
+      <c r="G172">
+        <v>0.15177827999999999</v>
+      </c>
+      <c r="H172">
+        <v>0.35937556999999998</v>
+      </c>
+      <c r="I172">
+        <v>0.47739393000000002</v>
+      </c>
+      <c r="J172">
+        <v>0.500139</v>
+      </c>
+      <c r="K172">
+        <v>0.52248989999999995</v>
+      </c>
+      <c r="L172">
+        <v>0.44690895000000003</v>
+      </c>
+      <c r="M172">
+        <v>0.10450929</v>
+      </c>
+      <c r="N172">
+        <v>0.12362533000000001</v>
+      </c>
+      <c r="O172">
+        <v>3.7862501999999999E-2</v>
+      </c>
+      <c r="P172">
+        <v>1.9392708000000002E-2</v>
+      </c>
+      <c r="Q172">
+        <v>0.35707230000000001</v>
+      </c>
+      <c r="R172">
+        <v>0.53795320000000002</v>
+      </c>
+      <c r="S172">
+        <v>0.53795320000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>366000</v>
+      </c>
+      <c r="B173">
+        <v>0.15358226999999999</v>
+      </c>
+      <c r="C173">
+        <v>0.18520407</v>
+      </c>
+      <c r="D173">
+        <v>0.14003073999999999</v>
+      </c>
+      <c r="E173">
+        <v>8.5718840000000004E-2</v>
+      </c>
+      <c r="F173">
+        <v>0.29958131999999998</v>
+      </c>
+      <c r="G173">
+        <v>0.14839827999999999</v>
+      </c>
+      <c r="H173">
+        <v>0.33736276999999998</v>
+      </c>
+      <c r="I173">
+        <v>0.45240491999999999</v>
+      </c>
+      <c r="J173">
+        <v>0.46056124999999998</v>
+      </c>
+      <c r="K173">
+        <v>0.51278173999999999</v>
+      </c>
+      <c r="L173">
+        <v>0.29899611999999998</v>
+      </c>
+      <c r="M173">
+        <v>0.14126985</v>
+      </c>
+      <c r="N173">
+        <v>0.13099812</v>
+      </c>
+      <c r="O173">
+        <v>3.9626673000000001E-2</v>
+      </c>
+      <c r="P173">
+        <v>3.2039169999999999E-2</v>
+      </c>
+      <c r="Q173">
+        <v>0.36172916999999999</v>
+      </c>
+      <c r="R173">
+        <v>0.56439304000000001</v>
+      </c>
+      <c r="S173">
+        <v>0.56439304000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>368000</v>
+      </c>
+      <c r="B174">
+        <v>0.16111130000000001</v>
+      </c>
+      <c r="C174">
+        <v>0.1917983</v>
+      </c>
+      <c r="D174">
+        <v>0.11876508600000001</v>
+      </c>
+      <c r="E174">
+        <v>0.201742</v>
+      </c>
+      <c r="F174">
+        <v>0.29420977999999998</v>
+      </c>
+      <c r="G174">
+        <v>0.16162460000000001</v>
+      </c>
+      <c r="H174">
+        <v>0.3502014</v>
+      </c>
+      <c r="I174">
+        <v>0.47242138</v>
+      </c>
+      <c r="J174">
+        <v>0.47983663999999998</v>
+      </c>
+      <c r="K174">
+        <v>0.51398646999999997</v>
+      </c>
+      <c r="L174">
+        <v>0.32526916</v>
+      </c>
+      <c r="M174">
+        <v>0.2596154</v>
+      </c>
+      <c r="N174">
+        <v>0.12706134999999999</v>
+      </c>
+      <c r="O174">
+        <v>3.7153390000000001E-2</v>
+      </c>
+      <c r="P174">
+        <v>2.8693613E-2</v>
+      </c>
+      <c r="Q174">
+        <v>0.35964578000000003</v>
+      </c>
+      <c r="R174">
+        <v>0.55255425000000002</v>
+      </c>
+      <c r="S174">
+        <v>0.55255425000000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>370000</v>
+      </c>
+      <c r="B175">
+        <v>0.14988491000000001</v>
+      </c>
+      <c r="C175">
+        <v>0.22242598</v>
+      </c>
+      <c r="D175">
+        <v>0.17999551999999999</v>
+      </c>
+      <c r="E175">
+        <v>0.12908374</v>
+      </c>
+      <c r="F175">
+        <v>0.30745270000000002</v>
+      </c>
+      <c r="G175">
+        <v>0.1423133</v>
+      </c>
+      <c r="H175">
+        <v>0.34701802999999998</v>
+      </c>
+      <c r="I175">
+        <v>0.43940318</v>
+      </c>
+      <c r="J175">
+        <v>0.46064707999999999</v>
+      </c>
+      <c r="K175">
+        <v>0.56940376999999998</v>
+      </c>
+      <c r="L175">
+        <v>0.32480878000000002</v>
+      </c>
+      <c r="M175">
+        <v>0.15096618000000001</v>
+      </c>
+      <c r="N175">
+        <v>0.12610068999999999</v>
+      </c>
+      <c r="O175">
+        <v>4.0134594000000003E-2</v>
+      </c>
+      <c r="P175">
+        <v>2.0715483999999999E-2</v>
+      </c>
+      <c r="Q175">
+        <v>0.35918563999999997</v>
+      </c>
+      <c r="R175">
+        <v>0.54613670000000003</v>
+      </c>
+      <c r="S175">
+        <v>0.54613670000000003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>372000</v>
+      </c>
+      <c r="B176">
+        <v>0.16069675999999999</v>
+      </c>
+      <c r="C176">
+        <v>0.24985885999999999</v>
+      </c>
+      <c r="D176">
+        <v>0.12413493</v>
+      </c>
+      <c r="E176">
+        <v>3.2664180000000001E-2</v>
+      </c>
+      <c r="F176">
+        <v>0.30595618000000002</v>
+      </c>
+      <c r="G176">
+        <v>0.16023970000000001</v>
+      </c>
+      <c r="H176">
+        <v>0.32669910000000002</v>
+      </c>
+      <c r="I176">
+        <v>0.43170132999999999</v>
+      </c>
+      <c r="J176">
+        <v>0.43451424999999999</v>
+      </c>
+      <c r="K176">
+        <v>0.54116589999999998</v>
+      </c>
+      <c r="L176">
+        <v>0.23914562</v>
+      </c>
+      <c r="M176">
+        <v>6.9949490000000003E-2</v>
+      </c>
+      <c r="N176">
+        <v>0.11738948</v>
+      </c>
+      <c r="O176">
+        <v>4.0569067E-2</v>
+      </c>
+      <c r="P176">
+        <v>2.6235676999999999E-2</v>
+      </c>
+      <c r="Q176">
+        <v>0.36087626</v>
+      </c>
+      <c r="R176">
+        <v>0.54506975000000002</v>
+      </c>
+      <c r="S176">
+        <v>0.54506975000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>374000</v>
+      </c>
+      <c r="B177">
+        <v>0.17009403000000001</v>
+      </c>
+      <c r="C177">
+        <v>0.22063376000000001</v>
+      </c>
+      <c r="D177">
+        <v>0.18475016999999999</v>
+      </c>
+      <c r="E177">
+        <v>5.5117662999999997E-2</v>
+      </c>
+      <c r="F177">
+        <v>0.31750139999999999</v>
+      </c>
+      <c r="G177">
+        <v>0.15958263</v>
+      </c>
+      <c r="H177">
+        <v>0.34513633999999999</v>
+      </c>
+      <c r="I177">
+        <v>0.46537274000000001</v>
+      </c>
+      <c r="J177">
+        <v>0.47254760000000001</v>
+      </c>
+      <c r="K177">
+        <v>0.51563970000000003</v>
+      </c>
+      <c r="L177">
+        <v>0.34727271999999998</v>
+      </c>
+      <c r="M177">
+        <v>0.14437927</v>
+      </c>
+      <c r="N177">
+        <v>0.12381513</v>
+      </c>
+      <c r="O177">
+        <v>3.5655707000000002E-2</v>
+      </c>
+      <c r="P177">
+        <v>2.5249073E-2</v>
+      </c>
+      <c r="Q177">
+        <v>0.35684407000000001</v>
+      </c>
+      <c r="R177">
+        <v>0.54156344999999995</v>
+      </c>
+      <c r="S177">
+        <v>0.54156344999999995</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>376000</v>
+      </c>
+      <c r="B178">
+        <v>0.16621915000000001</v>
+      </c>
+      <c r="C178">
+        <v>0.23985081999999999</v>
+      </c>
+      <c r="D178">
+        <v>0.15771830000000001</v>
+      </c>
+      <c r="E178">
+        <v>0.10396123</v>
+      </c>
+      <c r="F178">
+        <v>0.32589126000000002</v>
+      </c>
+      <c r="G178">
+        <v>0.14744789999999999</v>
+      </c>
+      <c r="H178">
+        <v>0.38274272999999998</v>
+      </c>
+      <c r="I178">
+        <v>0.51729309999999995</v>
+      </c>
+      <c r="J178">
+        <v>0.52113783000000002</v>
+      </c>
+      <c r="K178">
+        <v>0.56909960000000004</v>
+      </c>
+      <c r="L178">
+        <v>0.41506776000000001</v>
+      </c>
+      <c r="M178">
+        <v>0.16538462000000001</v>
+      </c>
+      <c r="N178">
+        <v>0.12307538</v>
+      </c>
+      <c r="O178">
+        <v>3.8727213000000003E-2</v>
+      </c>
+      <c r="P178">
+        <v>2.5964596999999999E-2</v>
+      </c>
+      <c r="Q178">
+        <v>0.35303065</v>
+      </c>
+      <c r="R178">
+        <v>0.54079723000000002</v>
+      </c>
+      <c r="S178">
+        <v>0.54079723000000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>378000</v>
+      </c>
+      <c r="B179">
+        <v>0.15914458000000001</v>
+      </c>
+      <c r="C179">
+        <v>0.19257371000000001</v>
+      </c>
+      <c r="D179">
+        <v>0.20576686</v>
+      </c>
+      <c r="E179">
+        <v>4.7530719999999999E-2</v>
+      </c>
+      <c r="F179">
+        <v>0.29887056000000001</v>
+      </c>
+      <c r="G179">
+        <v>0.14632645</v>
+      </c>
+      <c r="H179">
+        <v>0.36141990000000002</v>
+      </c>
+      <c r="I179">
+        <v>0.45588538000000001</v>
+      </c>
+      <c r="J179">
+        <v>0.46148257999999998</v>
+      </c>
+      <c r="K179">
+        <v>0.49602592000000001</v>
+      </c>
+      <c r="L179">
+        <v>0.35548612000000002</v>
+      </c>
+      <c r="M179">
+        <v>0.11127946</v>
+      </c>
+      <c r="N179">
+        <v>0.13653839000000001</v>
+      </c>
+      <c r="O179">
+        <v>3.6698590000000003E-2</v>
+      </c>
+      <c r="P179">
+        <v>2.4977472000000001E-2</v>
+      </c>
+      <c r="Q179">
+        <v>0.35666585000000001</v>
+      </c>
+      <c r="R179">
+        <v>0.55488020000000005</v>
+      </c>
+      <c r="S179">
+        <v>0.55488020000000005</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>380000</v>
+      </c>
+      <c r="B180">
+        <v>0.15224737999999999</v>
+      </c>
+      <c r="C180">
+        <v>0.22569172000000001</v>
+      </c>
+      <c r="D180">
+        <v>8.7256570000000006E-2</v>
+      </c>
+      <c r="E180">
+        <v>4.3754420000000002E-2</v>
+      </c>
+      <c r="F180">
+        <v>0.29087176999999997</v>
+      </c>
+      <c r="G180">
+        <v>0.14165525000000001</v>
+      </c>
+      <c r="H180">
+        <v>0.35307266999999998</v>
+      </c>
+      <c r="I180">
+        <v>0.46335757</v>
+      </c>
+      <c r="J180">
+        <v>0.48462227000000002</v>
+      </c>
+      <c r="K180">
+        <v>0.57100859999999998</v>
+      </c>
+      <c r="L180">
+        <v>0.4373341</v>
+      </c>
+      <c r="M180">
+        <v>6.5898620000000005E-2</v>
+      </c>
+      <c r="N180">
+        <v>0.13421932</v>
+      </c>
+      <c r="O180">
+        <v>4.1645817000000002E-2</v>
+      </c>
+      <c r="P180">
+        <v>2.6429487000000002E-2</v>
+      </c>
+      <c r="Q180">
+        <v>0.35697775999999998</v>
+      </c>
+      <c r="R180">
+        <v>0.55927199999999999</v>
+      </c>
+      <c r="S180">
+        <v>0.55927199999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>382000</v>
+      </c>
+      <c r="B181">
+        <v>0.15352610999999999</v>
+      </c>
+      <c r="C181">
+        <v>0.21271931999999999</v>
+      </c>
+      <c r="D181">
+        <v>0.14900005999999999</v>
+      </c>
+      <c r="E181">
+        <v>1.088166E-2</v>
+      </c>
+      <c r="F181">
+        <v>0.30364682999999998</v>
+      </c>
+      <c r="G181">
+        <v>0.13757868000000001</v>
+      </c>
+      <c r="H181">
+        <v>0.37700109999999998</v>
+      </c>
+      <c r="I181">
+        <v>0.45304745000000002</v>
+      </c>
+      <c r="J181">
+        <v>0.46056277000000001</v>
+      </c>
+      <c r="K181">
+        <v>0.55979690000000004</v>
+      </c>
+      <c r="L181">
+        <v>0.33564507999999998</v>
+      </c>
+      <c r="M181">
+        <v>2.6478495000000001E-2</v>
+      </c>
+      <c r="N181">
+        <v>0.12625585</v>
+      </c>
+      <c r="O181">
+        <v>4.2928565000000002E-2</v>
+      </c>
+      <c r="P181">
+        <v>3.0663006E-2</v>
+      </c>
+      <c r="Q181">
+        <v>0.36192166999999997</v>
+      </c>
+      <c r="R181">
+        <v>0.56176970000000004</v>
+      </c>
+      <c r="S181">
+        <v>0.56176970000000004</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>384000</v>
+      </c>
+      <c r="B182">
+        <v>0.16321622</v>
+      </c>
+      <c r="C182">
+        <v>0.26547375000000001</v>
+      </c>
+      <c r="D182">
+        <v>0.10905772</v>
+      </c>
+      <c r="E182">
+        <v>1.6211387000000001E-2</v>
+      </c>
+      <c r="F182">
+        <v>0.32097206</v>
+      </c>
+      <c r="G182">
+        <v>0.15448545999999999</v>
+      </c>
+      <c r="H182">
+        <v>0.38880807000000001</v>
+      </c>
+      <c r="I182">
+        <v>0.48106027000000001</v>
+      </c>
+      <c r="J182">
+        <v>0.48549872999999999</v>
+      </c>
+      <c r="K182">
+        <v>0.57310253</v>
+      </c>
+      <c r="L182">
+        <v>0.27028282999999997</v>
+      </c>
+      <c r="M182">
+        <v>0.10032679999999999</v>
+      </c>
+      <c r="N182">
+        <v>0.12632984</v>
+      </c>
+      <c r="O182">
+        <v>3.648829E-2</v>
+      </c>
+      <c r="P182">
+        <v>1.9600062000000001E-2</v>
+      </c>
+      <c r="Q182">
+        <v>0.35793424000000001</v>
+      </c>
+      <c r="R182">
+        <v>0.54035279999999997</v>
+      </c>
+      <c r="S182">
+        <v>0.54035279999999997</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>386000</v>
+      </c>
+      <c r="B183">
+        <v>0.16853087</v>
+      </c>
+      <c r="C183">
+        <v>0.26856858</v>
+      </c>
+      <c r="D183">
+        <v>0.12766548</v>
+      </c>
+      <c r="E183">
+        <v>4.5987699999999999E-2</v>
+      </c>
+      <c r="F183">
+        <v>0.32700768000000002</v>
+      </c>
+      <c r="G183">
+        <v>0.16649101999999999</v>
+      </c>
+      <c r="H183">
+        <v>0.40703210000000001</v>
+      </c>
+      <c r="I183">
+        <v>0.47568578</v>
+      </c>
+      <c r="J183">
+        <v>0.48380020000000001</v>
+      </c>
+      <c r="K183">
+        <v>0.60383975999999995</v>
+      </c>
+      <c r="L183">
+        <v>0.30667414999999998</v>
+      </c>
+      <c r="M183">
+        <v>0.1125</v>
+      </c>
+      <c r="N183">
+        <v>0.120357305</v>
+      </c>
+      <c r="O183">
+        <v>3.9436348000000003E-2</v>
+      </c>
+      <c r="P183">
+        <v>2.7881935E-2</v>
+      </c>
+      <c r="Q183">
+        <v>0.3603942</v>
+      </c>
+      <c r="R183">
+        <v>0.54806982999999998</v>
+      </c>
+      <c r="S183">
+        <v>0.54806982999999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>388000</v>
+      </c>
+      <c r="B184">
+        <v>0.16413112999999999</v>
+      </c>
+      <c r="C184">
+        <v>0.22931734000000001</v>
+      </c>
+      <c r="D184">
+        <v>0.13617720999999999</v>
+      </c>
+      <c r="E184">
+        <v>2.2541889999999998E-2</v>
+      </c>
+      <c r="F184">
+        <v>0.32165804999999997</v>
+      </c>
+      <c r="G184">
+        <v>0.15544839999999999</v>
+      </c>
+      <c r="H184">
+        <v>0.31468457</v>
+      </c>
+      <c r="I184">
+        <v>0.47310730000000001</v>
+      </c>
+      <c r="J184">
+        <v>0.47796735000000001</v>
+      </c>
+      <c r="K184">
+        <v>0.54679686000000005</v>
+      </c>
+      <c r="L184">
+        <v>0.35057549999999998</v>
+      </c>
+      <c r="M184">
+        <v>0.10769231</v>
+      </c>
+      <c r="N184">
+        <v>0.13086324999999999</v>
+      </c>
+      <c r="O184">
+        <v>4.0548704999999997E-2</v>
+      </c>
+      <c r="P184">
+        <v>2.7689267E-2</v>
+      </c>
+      <c r="Q184">
+        <v>0.36448005</v>
+      </c>
+      <c r="R184">
+        <v>0.56358109999999995</v>
+      </c>
+      <c r="S184">
+        <v>0.56358109999999995</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>390000</v>
+      </c>
+      <c r="B185">
+        <v>0.1444366</v>
+      </c>
+      <c r="C185">
+        <v>0.23543699000000001</v>
+      </c>
+      <c r="D185">
+        <v>0.19647076999999999</v>
+      </c>
+      <c r="E185">
+        <v>5.2140436999999998E-2</v>
+      </c>
+      <c r="F185">
+        <v>0.26352763000000001</v>
+      </c>
+      <c r="G185">
+        <v>0.14178307000000001</v>
+      </c>
+      <c r="H185">
+        <v>0.28617315999999998</v>
+      </c>
+      <c r="I185">
+        <v>0.46137660000000003</v>
+      </c>
+      <c r="J185">
+        <v>0.46879510000000002</v>
+      </c>
+      <c r="K185">
+        <v>0.57078445</v>
+      </c>
+      <c r="L185">
+        <v>0.34316166999999997</v>
+      </c>
+      <c r="M185">
+        <v>8.3950620000000004E-2</v>
+      </c>
+      <c r="N185">
+        <v>0.14652631999999999</v>
+      </c>
+      <c r="O185">
+        <v>3.5488105999999998E-2</v>
+      </c>
+      <c r="P185">
+        <v>3.1757668000000003E-2</v>
+      </c>
+      <c r="Q185">
+        <v>0.36601514000000002</v>
+      </c>
+      <c r="R185">
+        <v>0.5797871</v>
+      </c>
+      <c r="S185">
+        <v>0.5797871</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>392000</v>
+      </c>
+      <c r="B186">
+        <v>0.17369351</v>
+      </c>
+      <c r="C186">
+        <v>0.25693166000000001</v>
+      </c>
+      <c r="D186">
+        <v>0.15645781</v>
+      </c>
+      <c r="E186">
+        <v>4.6590081999999998E-2</v>
+      </c>
+      <c r="F186">
+        <v>0.32106542999999999</v>
+      </c>
+      <c r="G186">
+        <v>0.17440610000000001</v>
+      </c>
+      <c r="H186">
+        <v>0.36591174999999998</v>
+      </c>
+      <c r="I186">
+        <v>0.47053453000000001</v>
+      </c>
+      <c r="J186">
+        <v>0.47533122</v>
+      </c>
+      <c r="K186">
+        <v>0.56659610000000005</v>
+      </c>
+      <c r="L186">
+        <v>0.39205276999999999</v>
+      </c>
+      <c r="M186">
+        <v>0.10642857</v>
+      </c>
+      <c r="N186">
+        <v>0.11575866</v>
+      </c>
+      <c r="O186">
+        <v>4.0170527999999997E-2</v>
+      </c>
+      <c r="P186">
+        <v>2.0000529E-2</v>
+      </c>
+      <c r="Q186">
+        <v>0.3584579</v>
+      </c>
+      <c r="R186">
+        <v>0.5343871</v>
+      </c>
+      <c r="S186">
+        <v>0.5343871</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>394000</v>
+      </c>
+      <c r="B187">
+        <v>0.14474444</v>
+      </c>
+      <c r="C187">
+        <v>0.21670009000000001</v>
+      </c>
+      <c r="D187">
+        <v>8.4978155999999999E-2</v>
+      </c>
+      <c r="E187">
+        <v>6.6318369999999998E-3</v>
+      </c>
+      <c r="F187">
+        <v>0.26766561999999999</v>
+      </c>
+      <c r="G187">
+        <v>0.13962698000000001</v>
+      </c>
+      <c r="H187">
+        <v>0.40304582999999999</v>
+      </c>
+      <c r="I187">
+        <v>0.49458247</v>
+      </c>
+      <c r="J187">
+        <v>0.49681792000000002</v>
+      </c>
+      <c r="K187">
+        <v>0.52970486999999999</v>
+      </c>
+      <c r="L187">
+        <v>0.26378637999999999</v>
+      </c>
+      <c r="M187">
+        <v>5.037879E-2</v>
+      </c>
+      <c r="N187">
+        <v>0.12054782999999999</v>
+      </c>
+      <c r="O187">
+        <v>4.0742689999999998E-2</v>
+      </c>
+      <c r="P187">
+        <v>2.5407095000000001E-2</v>
+      </c>
+      <c r="Q187">
+        <v>0.36022114999999999</v>
+      </c>
+      <c r="R187">
+        <v>0.54691849999999997</v>
+      </c>
+      <c r="S187">
+        <v>0.54691849999999997</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>396000</v>
+      </c>
+      <c r="B188">
+        <v>0.16473847999999999</v>
+      </c>
+      <c r="C188">
+        <v>0.20712706</v>
+      </c>
+      <c r="D188">
+        <v>9.5080410000000004E-2</v>
+      </c>
+      <c r="E188">
+        <v>3.0834816000000001E-2</v>
+      </c>
+      <c r="F188">
+        <v>0.29387142999999999</v>
+      </c>
+      <c r="G188">
+        <v>0.16603841999999999</v>
+      </c>
+      <c r="H188">
+        <v>0.33785355</v>
+      </c>
+      <c r="I188">
+        <v>0.43823086999999999</v>
+      </c>
+      <c r="J188">
+        <v>0.44277670000000002</v>
+      </c>
+      <c r="K188">
+        <v>0.53706869999999995</v>
+      </c>
+      <c r="L188">
+        <v>0.22231194000000001</v>
+      </c>
+      <c r="M188">
+        <v>6.3392854999999998E-2</v>
+      </c>
+      <c r="N188">
+        <v>0.13589507000000001</v>
+      </c>
+      <c r="O188">
+        <v>3.8613939999999999E-2</v>
+      </c>
+      <c r="P188">
+        <v>2.757652E-2</v>
+      </c>
+      <c r="Q188">
+        <v>0.36079889999999998</v>
+      </c>
+      <c r="R188">
+        <v>0.56288433000000004</v>
+      </c>
+      <c r="S188">
+        <v>0.56288433000000004</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>398000</v>
+      </c>
+      <c r="B189">
+        <v>0.16657269999999999</v>
+      </c>
+      <c r="C189">
+        <v>0.23670732999999999</v>
+      </c>
+      <c r="D189">
+        <v>9.7661674000000004E-2</v>
+      </c>
+      <c r="E189">
+        <v>3.1799026000000001E-2</v>
+      </c>
+      <c r="F189">
+        <v>0.30998520000000002</v>
+      </c>
+      <c r="G189">
+        <v>0.15938629000000001</v>
+      </c>
+      <c r="H189">
+        <v>0.34494190000000002</v>
+      </c>
+      <c r="I189">
+        <v>0.47243035</v>
+      </c>
+      <c r="J189">
+        <v>0.48087629999999998</v>
+      </c>
+      <c r="K189">
+        <v>0.55002034</v>
+      </c>
+      <c r="L189">
+        <v>0.38346532</v>
+      </c>
+      <c r="M189">
+        <v>4.2962964999999999E-2</v>
+      </c>
+      <c r="N189">
+        <v>0.13165715</v>
+      </c>
+      <c r="O189">
+        <v>3.8286269999999997E-2</v>
+      </c>
+      <c r="P189">
+        <v>2.3865225E-2</v>
+      </c>
+      <c r="Q189">
+        <v>0.36421480000000001</v>
+      </c>
+      <c r="R189">
+        <v>0.55802339999999995</v>
+      </c>
+      <c r="S189">
+        <v>0.55802339999999995</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>400000</v>
+      </c>
+      <c r="B190">
+        <v>0.14416966000000001</v>
+      </c>
+      <c r="C190">
+        <v>0.19523947</v>
+      </c>
+      <c r="D190">
+        <v>0.11055131</v>
+      </c>
+      <c r="E190">
+        <v>5.2964415000000001E-2</v>
+      </c>
+      <c r="F190">
+        <v>0.28887580000000002</v>
+      </c>
+      <c r="G190">
+        <v>0.13362804</v>
+      </c>
+      <c r="H190">
+        <v>0.34664827999999998</v>
+      </c>
+      <c r="I190">
+        <v>0.46529566999999999</v>
+      </c>
+      <c r="J190">
+        <v>0.46898450000000003</v>
+      </c>
+      <c r="K190">
+        <v>0.53598577000000003</v>
+      </c>
+      <c r="L190">
+        <v>0.32278103000000002</v>
+      </c>
+      <c r="M190">
+        <v>0.12592592999999999</v>
+      </c>
+      <c r="N190">
+        <v>0.14559068</v>
+      </c>
+      <c r="O190">
+        <v>4.1157432000000001E-2</v>
+      </c>
+      <c r="P190">
+        <v>2.1055127E-2</v>
+      </c>
+      <c r="Q190">
+        <v>0.35740359999999999</v>
+      </c>
+      <c r="R190">
+        <v>0.56520700000000001</v>
+      </c>
+      <c r="S190">
+        <v>0.56520700000000001</v>
       </c>
     </row>
   </sheetData>
